--- a/Two Slit/Two Slit.xlsx
+++ b/Two Slit/Two Slit.xlsx
@@ -260,18 +260,6 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,9 +289,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +301,21 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,11 +531,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="94751360"/>
-        <c:axId val="92738304"/>
+        <c:axId val="49837952"/>
+        <c:axId val="72692864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94751360"/>
+        <c:axId val="49837952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,12 +602,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92738304"/>
+        <c:crossAx val="72692864"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92738304"/>
+        <c:axId val="72692864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +656,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="94751360"/>
+        <c:crossAx val="49837952"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -670,7 +670,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -814,11 +814,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="92758400"/>
-        <c:axId val="92760320"/>
+        <c:axId val="72895488"/>
+        <c:axId val="72914816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92758400"/>
+        <c:axId val="72895488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,12 +885,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92760320"/>
+        <c:crossAx val="72914816"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92760320"/>
+        <c:axId val="72914816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +939,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="92758400"/>
+        <c:crossAx val="72895488"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -953,7 +953,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1006,7 +1006,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1311,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,38 +1322,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="26"/>
+      <c r="D1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="Q1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" t="s">
@@ -1362,2033 +1362,2033 @@
       <c r="B2">
         <v>485</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>185</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="2">
         <v>235</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="2">
         <v>285</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
         <v>335</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="2">
         <v>385</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="2">
         <v>435</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="2">
         <v>485</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="2">
         <v>535</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="2">
         <v>585</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="2">
         <v>635</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="2">
         <v>685</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="3">
         <v>185</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="3">
         <v>235</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="3">
         <v>285</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="3">
         <v>335</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="3">
         <v>385</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="3">
         <v>435</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="3">
         <v>485</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="3">
         <v>535</v>
       </c>
-      <c r="Z2" s="7">
+      <c r="Z2" s="3">
         <v>585</v>
       </c>
-      <c r="AA2" s="7">
+      <c r="AA2" s="3">
         <v>635</v>
       </c>
-      <c r="AB2" s="7">
+      <c r="AB2" s="3">
         <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="5" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" s="11" customFormat="1">
-      <c r="A4" s="10">
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+    </row>
+    <row r="4" spans="1:28" s="7" customFormat="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>92</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="9">
         <v>6</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="9">
         <v>8</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="8">
         <v>29</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>20</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>49</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="9">
         <v>102</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>13</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>36</v>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="9">
         <v>28</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="9">
         <v>7</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="9">
         <v>4</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="8">
         <v>1</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="10">
         <v>1.3</v>
       </c>
-      <c r="S4" s="13">
+      <c r="S4" s="9">
         <v>1</v>
       </c>
-      <c r="T4" s="13">
+      <c r="T4" s="9">
         <v>4</v>
       </c>
-      <c r="U4" s="13">
+      <c r="U4" s="9">
         <v>17</v>
       </c>
-      <c r="V4" s="13">
+      <c r="V4" s="9">
         <v>27</v>
       </c>
-      <c r="W4" s="13">
+      <c r="W4" s="9">
         <v>23</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="9">
         <v>21</v>
       </c>
-      <c r="Y4" s="13">
+      <c r="Y4" s="9">
         <v>32</v>
       </c>
-      <c r="Z4" s="13">
+      <c r="Z4" s="9">
         <v>16</v>
       </c>
-      <c r="AA4" s="13">
+      <c r="AA4" s="9">
         <v>9</v>
       </c>
-      <c r="AB4" s="13">
+      <c r="AB4" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="11" customFormat="1">
-      <c r="A5" s="10">
+    <row r="5" spans="1:28" s="7" customFormat="1">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>97</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="9">
         <v>5</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="9">
         <v>9</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="8">
         <v>28</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="9">
         <v>24</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>58</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="9">
         <v>105</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>8</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="9">
         <v>39</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="9">
         <v>26</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="9">
         <v>7</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="9">
         <v>2</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="8">
         <v>2</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="10">
         <v>1.4</v>
       </c>
-      <c r="S5" s="13">
+      <c r="S5" s="9">
         <v>2</v>
       </c>
-      <c r="T5" s="13">
+      <c r="T5" s="9">
         <v>8</v>
       </c>
-      <c r="U5" s="13">
+      <c r="U5" s="9">
         <v>17</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="9">
         <v>22</v>
       </c>
-      <c r="W5" s="13">
+      <c r="W5" s="9">
         <v>17</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="9">
         <v>28</v>
       </c>
-      <c r="Y5" s="13">
+      <c r="Y5" s="9">
         <v>25</v>
       </c>
-      <c r="Z5" s="13">
+      <c r="Z5" s="9">
         <v>22</v>
       </c>
-      <c r="AA5" s="13">
+      <c r="AA5" s="9">
         <v>11</v>
       </c>
-      <c r="AB5" s="13">
+      <c r="AB5" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="11" customFormat="1">
-      <c r="A6" s="10">
+    <row r="6" spans="1:28" s="7" customFormat="1">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>110</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="9">
         <v>6</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="9">
         <v>9</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>35</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="9">
         <v>21</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>54</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="9">
         <v>122</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>7</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="9">
         <v>43</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="9">
         <v>25</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="9">
         <v>6</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="9">
         <v>3</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="8">
         <v>3</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="10">
         <v>1.6</v>
       </c>
-      <c r="S6" s="13">
+      <c r="S6" s="9">
         <v>2</v>
       </c>
-      <c r="T6" s="13">
+      <c r="T6" s="9">
         <v>6</v>
       </c>
-      <c r="U6" s="13">
+      <c r="U6" s="9">
         <v>18</v>
       </c>
-      <c r="V6" s="13">
+      <c r="V6" s="9">
         <v>20</v>
       </c>
-      <c r="W6" s="13">
+      <c r="W6" s="9">
         <v>22</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="9">
         <v>26</v>
       </c>
-      <c r="Y6" s="13">
+      <c r="Y6" s="9">
         <v>21</v>
       </c>
-      <c r="Z6" s="13">
+      <c r="Z6" s="9">
         <v>18</v>
       </c>
-      <c r="AA6" s="13">
+      <c r="AA6" s="9">
         <v>6</v>
       </c>
-      <c r="AB6" s="13">
+      <c r="AB6" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="11" customFormat="1">
-      <c r="A7" s="10">
+    <row r="7" spans="1:28" s="7" customFormat="1">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>102</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="9">
         <v>2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="9">
         <v>8</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="8">
         <v>33</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>30</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>49</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="9">
         <v>96</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>11</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="9">
         <v>30</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="9">
         <v>25</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="9">
         <v>5</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="9">
         <v>3</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="8">
         <v>4</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="10">
         <v>1.2</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="9">
         <v>3</v>
       </c>
-      <c r="T7" s="13">
+      <c r="T7" s="9">
         <v>2</v>
       </c>
-      <c r="U7" s="13">
+      <c r="U7" s="9">
         <v>13</v>
       </c>
-      <c r="V7" s="13">
+      <c r="V7" s="9">
         <v>23</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="9">
         <v>23</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="9">
         <v>21</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="9">
         <v>18</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="9">
         <v>18</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="9">
         <v>9</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="11" customFormat="1">
-      <c r="A8" s="10">
+    <row r="8" spans="1:28" s="7" customFormat="1">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>104</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="9">
         <v>4</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="9">
         <v>8</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="8">
         <v>39</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="9">
         <v>22</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>48</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="9">
         <v>100</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="9">
         <v>14</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="9">
         <v>27</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="9">
         <v>20</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="9">
         <v>9</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="9">
         <v>4</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="8">
         <v>5</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="10">
         <v>0.8</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="9">
         <v>1</v>
       </c>
-      <c r="T8" s="13">
+      <c r="T8" s="9">
         <v>6</v>
       </c>
-      <c r="U8" s="13">
+      <c r="U8" s="9">
         <v>21</v>
       </c>
-      <c r="V8" s="13">
+      <c r="V8" s="9">
         <v>18</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="9">
         <v>23</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="9">
         <v>28</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="9">
         <v>27</v>
       </c>
-      <c r="Z8" s="13">
+      <c r="Z8" s="9">
         <v>19</v>
       </c>
-      <c r="AA8" s="13">
+      <c r="AA8" s="9">
         <v>8</v>
       </c>
-      <c r="AB8" s="13">
+      <c r="AB8" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="11" customFormat="1">
-      <c r="A9" s="10">
+    <row r="9" spans="1:28" s="7" customFormat="1">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>103</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>6</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="9">
         <v>6</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="9">
         <v>7</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="8">
         <v>36</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="9">
         <v>23</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>50</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="9">
         <v>108</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="9">
         <v>14</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="9">
         <v>30</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="9">
         <v>27</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="9">
         <v>7</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="9">
         <v>3</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="8">
         <v>6</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="9">
         <v>0</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="9">
         <v>6</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="9">
         <v>10</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="9">
         <v>18</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="9">
         <v>30</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="9">
         <v>26</v>
       </c>
-      <c r="Y9" s="13">
+      <c r="Y9" s="9">
         <v>26</v>
       </c>
-      <c r="Z9" s="13">
+      <c r="Z9" s="9">
         <v>18</v>
       </c>
-      <c r="AA9" s="13">
+      <c r="AA9" s="9">
         <v>10</v>
       </c>
-      <c r="AB9" s="13">
+      <c r="AB9" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="11" customFormat="1">
-      <c r="A10" s="10">
+    <row r="10" spans="1:28" s="7" customFormat="1">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>107</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <v>7</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="9">
         <v>6</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="9">
         <v>9</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="8">
         <v>39</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="9">
         <v>28</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>51</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="9">
         <v>106</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="9">
         <v>12</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="9">
         <v>37</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="9">
         <v>28</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="9">
         <v>6</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="9">
         <v>6</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="8">
         <v>7</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="10">
         <v>1.2</v>
       </c>
-      <c r="S10" s="13">
+      <c r="S10" s="9">
         <v>2</v>
       </c>
-      <c r="T10" s="13">
+      <c r="T10" s="9">
         <v>6</v>
       </c>
-      <c r="U10" s="13">
+      <c r="U10" s="9">
         <v>8</v>
       </c>
-      <c r="V10" s="13">
+      <c r="V10" s="9">
         <v>21</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="9">
         <v>25</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="9">
         <v>30</v>
       </c>
-      <c r="Y10" s="13">
+      <c r="Y10" s="9">
         <v>26</v>
       </c>
-      <c r="Z10" s="13">
+      <c r="Z10" s="9">
         <v>17</v>
       </c>
-      <c r="AA10" s="13">
+      <c r="AA10" s="9">
         <v>7</v>
       </c>
-      <c r="AB10" s="13">
+      <c r="AB10" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="11" customFormat="1">
-      <c r="A11" s="10">
+    <row r="11" spans="1:28" s="7" customFormat="1">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>102</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="9">
         <v>6</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="9">
         <v>5</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="8">
         <v>34</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="9">
         <v>30</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>57</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="9">
         <v>110</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="9">
         <v>9</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="9">
         <v>33</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="9">
         <v>21</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="9">
         <v>8</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="9">
         <v>3</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="8">
         <v>8</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="10">
         <v>1.3</v>
       </c>
-      <c r="S11" s="13">
+      <c r="S11" s="9">
         <v>3</v>
       </c>
-      <c r="T11" s="13">
+      <c r="T11" s="9">
         <v>4</v>
       </c>
-      <c r="U11" s="13">
+      <c r="U11" s="9">
         <v>13</v>
       </c>
-      <c r="V11" s="13">
+      <c r="V11" s="9">
         <v>24</v>
       </c>
-      <c r="W11" s="13">
+      <c r="W11" s="9">
         <v>27</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="9">
         <v>39</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="9">
         <v>26</v>
       </c>
-      <c r="Z11" s="13">
+      <c r="Z11" s="9">
         <v>15</v>
       </c>
-      <c r="AA11" s="13">
+      <c r="AA11" s="9">
         <v>7</v>
       </c>
-      <c r="AB11" s="13">
+      <c r="AB11" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="11" customFormat="1">
-      <c r="A12" s="10">
+    <row r="12" spans="1:28" s="7" customFormat="1">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>92</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="9">
         <v>9</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="9">
         <v>9</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="8">
         <v>36</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="9">
         <v>17</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <v>58</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="9">
         <v>96</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="9">
         <v>12</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="9">
         <v>37</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="9">
         <v>19</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="9">
         <v>11</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="9">
         <v>3</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="8">
         <v>9</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="10">
         <v>1.3</v>
       </c>
-      <c r="S12" s="13">
+      <c r="S12" s="9">
         <v>0</v>
       </c>
-      <c r="T12" s="13">
+      <c r="T12" s="9">
         <v>4</v>
       </c>
-      <c r="U12" s="13">
+      <c r="U12" s="9">
         <v>16</v>
       </c>
-      <c r="V12" s="13">
+      <c r="V12" s="9">
         <v>23</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="9">
         <v>28</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="9">
         <v>26</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="9">
         <v>29</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="9">
         <v>14</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="9">
         <v>12</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AB12" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="11" customFormat="1">
-      <c r="A13" s="10">
+    <row r="13" spans="1:28" s="7" customFormat="1">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>94</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>10</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="9">
         <v>8</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9">
         <v>8</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="8">
         <v>31</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>22</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="9">
         <v>52</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="9">
         <v>111</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="9">
         <v>9</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="9">
         <v>47</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="9">
         <v>20</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="9">
         <v>7</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="9">
         <v>4</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="8">
         <v>10</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="10">
         <v>1.3</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="9">
         <v>3</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="9">
         <v>6</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="9">
         <v>13</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="9">
         <v>22</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="9">
         <v>25</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="9">
         <v>33</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="9">
         <v>24</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="9">
         <v>14</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="9">
         <v>6</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="11" customFormat="1">
-      <c r="A14" s="10">
+    <row r="14" spans="1:28" s="7" customFormat="1">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="12">
+      <c r="C14" s="11"/>
+      <c r="D14" s="8">
         <v>11</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="9">
         <v>9</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9">
         <v>7</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="8">
         <v>31</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="9">
         <v>22</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="9">
         <v>54</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="9">
         <v>122</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="9">
         <v>10</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="9">
         <v>35</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="9">
         <v>25</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="9">
         <v>7</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="9">
         <v>2</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="8">
         <v>11</v>
       </c>
-      <c r="R14" s="14">
+      <c r="R14" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S14" s="13">
+      <c r="S14" s="9">
         <v>3</v>
       </c>
-      <c r="T14" s="13">
+      <c r="T14" s="9">
         <v>4</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="9">
         <v>10</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="9">
         <v>19</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="9">
         <v>28</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="9">
         <v>31</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Y14" s="9">
         <v>18</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z14" s="9">
         <v>15</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="9">
         <v>9</v>
       </c>
-      <c r="AB14" s="13">
+      <c r="AB14" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="11" customFormat="1">
-      <c r="A15" s="10">
+    <row r="15" spans="1:28" s="7" customFormat="1">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="12">
+      <c r="C15" s="11"/>
+      <c r="D15" s="8">
         <v>12</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="9">
         <v>6</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9">
         <v>7</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="8">
         <v>36</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="9">
         <v>14</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="9">
         <v>52</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="9">
         <v>106</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="9">
         <v>13</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="9">
         <v>39</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="9">
         <v>18</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="9">
         <v>11</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="9">
         <v>3</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="8">
         <v>12</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S15" s="13">
+      <c r="S15" s="9">
         <v>4</v>
       </c>
-      <c r="T15" s="13">
+      <c r="T15" s="9">
         <v>8</v>
       </c>
-      <c r="U15" s="13">
+      <c r="U15" s="9">
         <v>13</v>
       </c>
-      <c r="V15" s="13">
+      <c r="V15" s="9">
         <v>23</v>
       </c>
-      <c r="W15" s="13">
+      <c r="W15" s="9">
         <v>30</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="9">
         <v>28</v>
       </c>
-      <c r="Y15" s="13">
+      <c r="Y15" s="9">
         <v>23</v>
       </c>
-      <c r="Z15" s="13">
+      <c r="Z15" s="9">
         <v>18</v>
       </c>
-      <c r="AA15" s="13">
+      <c r="AA15" s="9">
         <v>9</v>
       </c>
-      <c r="AB15" s="13">
+      <c r="AB15" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="11" customFormat="1">
-      <c r="A16" s="10">
+    <row r="16" spans="1:28" s="7" customFormat="1">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="12">
+      <c r="C16" s="11"/>
+      <c r="D16" s="8">
         <v>13</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="9">
         <v>7</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9">
         <v>6</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="8">
         <v>30</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="9">
         <v>22</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="9">
         <v>55</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="9">
         <v>97</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="9">
         <v>13</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="9">
         <v>38</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="9">
         <v>21</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="9">
         <v>5</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="9">
         <v>4</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="8">
         <v>13</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="10">
         <v>1.3</v>
       </c>
-      <c r="S16" s="13">
+      <c r="S16" s="9">
         <v>3</v>
       </c>
-      <c r="T16" s="13">
+      <c r="T16" s="9">
         <v>6</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="9">
         <v>11</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="9">
         <v>19</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="9">
         <v>25</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="9">
         <v>20</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="9">
         <v>25</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="9">
         <v>14</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="9">
         <v>6</v>
       </c>
-      <c r="AB16" s="13">
+      <c r="AB16" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="11" customFormat="1">
-      <c r="A17" s="10">
+    <row r="17" spans="1:28" s="7" customFormat="1">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="12">
+      <c r="C17" s="11"/>
+      <c r="D17" s="8">
         <v>14</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="9">
         <v>4</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9">
         <v>10</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="8">
         <v>29</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="9">
         <v>20</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="9">
         <v>57</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="9">
         <v>107</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="9">
         <v>8</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="9">
         <v>36</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="9">
         <v>17</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="9">
         <v>7</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="9">
         <v>4</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="8">
         <v>14</v>
       </c>
-      <c r="R17" s="14">
+      <c r="R17" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="9">
         <v>1</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="9">
         <v>12</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="9">
         <v>15</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="9">
         <v>22</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="9">
         <v>23</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="9">
         <v>33</v>
       </c>
-      <c r="Y17" s="13">
+      <c r="Y17" s="9">
         <v>22</v>
       </c>
-      <c r="Z17" s="13">
+      <c r="Z17" s="9">
         <v>14</v>
       </c>
-      <c r="AA17" s="13">
+      <c r="AA17" s="9">
         <v>8</v>
       </c>
-      <c r="AB17" s="13">
+      <c r="AB17" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="11" customFormat="1">
-      <c r="A18" s="10">
+    <row r="18" spans="1:28" s="7" customFormat="1">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="12">
+      <c r="C18" s="11"/>
+      <c r="D18" s="8">
         <v>15</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="9">
         <v>7</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9">
         <v>8</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="8">
         <v>41</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="9">
         <v>18</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>55</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="9">
         <v>103</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="9">
         <v>12</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="9">
         <v>34</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="9">
         <v>21</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="9">
         <v>6</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="9">
         <v>4</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="8">
         <v>15</v>
       </c>
-      <c r="R18" s="14">
+      <c r="R18" s="10">
         <v>1.2</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="9">
         <v>2</v>
       </c>
-      <c r="T18" s="13">
+      <c r="T18" s="9">
         <v>6</v>
       </c>
-      <c r="U18" s="13">
+      <c r="U18" s="9">
         <v>16</v>
       </c>
-      <c r="V18" s="13">
+      <c r="V18" s="9">
         <v>19</v>
       </c>
-      <c r="W18" s="13">
+      <c r="W18" s="9">
         <v>27</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="9">
         <v>27</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="Y18" s="9">
         <v>24</v>
       </c>
-      <c r="Z18" s="13">
+      <c r="Z18" s="9">
         <v>16</v>
       </c>
-      <c r="AA18" s="13">
+      <c r="AA18" s="9">
         <v>6</v>
       </c>
-      <c r="AB18" s="13">
+      <c r="AB18" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="11" customFormat="1">
-      <c r="A19" s="10">
+    <row r="19" spans="1:28" s="7" customFormat="1">
+      <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="12">
+      <c r="C19" s="11"/>
+      <c r="D19" s="8">
         <v>16</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="9">
         <v>4</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9">
         <v>12</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="8">
         <v>38</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="9">
         <v>27</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <v>54</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="9">
         <v>90</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="9">
         <v>10</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="9">
         <v>38</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="9">
         <v>25</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="9">
         <v>8</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="9">
         <v>3</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="8">
         <v>16</v>
       </c>
-      <c r="R19" s="14">
+      <c r="R19" s="10">
         <v>1.2</v>
       </c>
-      <c r="S19" s="13">
+      <c r="S19" s="9">
         <v>1</v>
       </c>
-      <c r="T19" s="13">
+      <c r="T19" s="9">
         <v>5</v>
       </c>
-      <c r="U19" s="13">
+      <c r="U19" s="9">
         <v>14</v>
       </c>
-      <c r="V19" s="13">
+      <c r="V19" s="9">
         <v>13</v>
       </c>
-      <c r="W19" s="13">
+      <c r="W19" s="9">
         <v>30</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="9">
         <v>23</v>
       </c>
-      <c r="Y19" s="13">
+      <c r="Y19" s="9">
         <v>17</v>
       </c>
-      <c r="Z19" s="13">
+      <c r="Z19" s="9">
         <v>15</v>
       </c>
-      <c r="AA19" s="13">
+      <c r="AA19" s="9">
         <v>11</v>
       </c>
-      <c r="AB19" s="13">
+      <c r="AB19" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="11" customFormat="1">
-      <c r="A20" s="10">
+    <row r="20" spans="1:28" s="7" customFormat="1">
+      <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12">
+      <c r="C20" s="11"/>
+      <c r="D20" s="8">
         <v>17</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="9">
         <v>7</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9">
         <v>11</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="8">
         <v>37</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="9">
         <v>27</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>45</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="9">
         <v>114</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="12">
         <v>6</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="9">
         <v>30</v>
       </c>
-      <c r="M20" s="13">
+      <c r="M20" s="9">
         <v>31</v>
       </c>
-      <c r="N20" s="13">
+      <c r="N20" s="9">
         <v>6</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="9">
         <v>0</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="8">
         <v>17</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S20" s="13">
+      <c r="S20" s="9">
         <v>2</v>
       </c>
-      <c r="T20" s="13">
+      <c r="T20" s="9">
         <v>5</v>
       </c>
-      <c r="U20" s="13">
+      <c r="U20" s="9">
         <v>14</v>
       </c>
-      <c r="V20" s="13">
+      <c r="V20" s="9">
         <v>28</v>
       </c>
-      <c r="W20" s="13">
+      <c r="W20" s="9">
         <v>27</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20" s="12">
         <v>25</v>
       </c>
-      <c r="Y20" s="13">
+      <c r="Y20" s="9">
         <v>20</v>
       </c>
-      <c r="Z20" s="13">
+      <c r="Z20" s="9">
         <v>14</v>
       </c>
-      <c r="AA20" s="13">
+      <c r="AA20" s="9">
         <v>6</v>
       </c>
-      <c r="AB20" s="13">
+      <c r="AB20" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="11" customFormat="1">
-      <c r="A21" s="10">
+    <row r="21" spans="1:28" s="7" customFormat="1">
+      <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="12">
+      <c r="C21" s="11"/>
+      <c r="D21" s="8">
         <v>18</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="9">
         <v>5</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="9">
         <v>10</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="8">
         <v>36</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="9">
         <v>21</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="9">
         <v>45</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="9">
         <v>111</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="12">
         <v>9</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="9">
         <v>36</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="9">
         <v>26</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="9">
         <v>10</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="9">
         <v>2</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="8">
         <v>18</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="10">
         <v>1.2</v>
       </c>
-      <c r="S21" s="13">
+      <c r="S21" s="9">
         <v>1</v>
       </c>
-      <c r="T21" s="13">
+      <c r="T21" s="9">
         <v>6</v>
       </c>
-      <c r="U21" s="13">
+      <c r="U21" s="9">
         <v>12</v>
       </c>
-      <c r="V21" s="13">
+      <c r="V21" s="9">
         <v>25</v>
       </c>
-      <c r="W21" s="13">
+      <c r="W21" s="9">
         <v>27</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="12">
         <v>32</v>
       </c>
-      <c r="Y21" s="13">
+      <c r="Y21" s="9">
         <v>28</v>
       </c>
-      <c r="Z21" s="13">
+      <c r="Z21" s="9">
         <v>14</v>
       </c>
-      <c r="AA21" s="13">
+      <c r="AA21" s="9">
         <v>6</v>
       </c>
-      <c r="AB21" s="13">
+      <c r="AB21" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="11" customFormat="1">
-      <c r="A22" s="10">
+    <row r="22" spans="1:28" s="7" customFormat="1">
+      <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="12">
+      <c r="C22" s="11"/>
+      <c r="D22" s="8">
         <v>19</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="9">
         <v>5</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="9">
         <v>7</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="8">
         <v>35</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="9">
         <v>22</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="9">
         <v>52</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="9">
         <v>92</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="12">
         <v>12</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="9">
         <v>32</v>
       </c>
-      <c r="M22" s="13">
+      <c r="M22" s="9">
         <v>21</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="9">
         <v>8</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="9">
         <v>5</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="8">
         <v>19</v>
       </c>
-      <c r="R22" s="14">
+      <c r="R22" s="10">
         <v>1.2</v>
       </c>
-      <c r="S22" s="13">
+      <c r="S22" s="9">
         <v>3</v>
       </c>
-      <c r="T22" s="13">
+      <c r="T22" s="9">
         <v>7</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="9">
         <v>17</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="9">
         <v>19</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="9">
         <v>26</v>
       </c>
-      <c r="X22" s="16">
+      <c r="X22" s="12">
         <v>19</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y22" s="9">
         <v>30</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z22" s="9">
         <v>19</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="9">
         <v>9</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AB22" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="11" customFormat="1">
-      <c r="A23" s="10">
+    <row r="23" spans="1:28" s="7" customFormat="1">
+      <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="12">
+      <c r="C23" s="11"/>
+      <c r="D23" s="8">
         <v>20</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="9">
         <v>4</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="9">
         <v>10</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="8">
         <v>39</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="9">
         <v>28</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="9">
         <v>50</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="9">
         <v>100</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="12">
         <v>11</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="9">
         <v>38</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M23" s="9">
         <v>25</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="9">
         <v>10</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="9">
         <v>5</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="8">
         <v>20</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="10">
         <v>1.2</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S23" s="9">
         <v>3</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T23" s="9">
         <v>6</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U23" s="9">
         <v>13</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="9">
         <v>19</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="9">
         <v>25</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23" s="12">
         <v>21</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="Y23" s="9">
         <v>17</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z23" s="9">
         <v>20</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="9">
         <v>8</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <f>AVERAGE(B4:B13)</f>
         <v>100.3</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="14">
         <f t="shared" ref="E24:J24" si="0">AVERAGE(E4:E23)</f>
         <v>5.8</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="14">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="14">
         <f t="shared" si="0"/>
         <v>34.6</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="14">
         <f t="shared" si="0"/>
         <v>22.9</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="14">
         <f t="shared" si="0"/>
         <v>52.25</v>
       </c>
-      <c r="J24" s="18">
-        <f t="shared" si="0"/>
+      <c r="J24" s="14">
+        <f>AVERAGE(J4:J23)</f>
         <v>104.9</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="14">
         <f>AVERAGE(K4:K19)</f>
         <v>10.9375</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="14">
         <f>AVERAGE(L4:L23)</f>
         <v>35.75</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="14">
         <f>AVERAGE(M4:M23)</f>
         <v>23.45</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="14">
         <f>AVERAGE(N4:N23)</f>
         <v>7.55</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="14">
         <f>AVERAGE(O4:O23)</f>
         <v>3.35</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="5" t="s">
+      <c r="P24" s="7"/>
+      <c r="Q24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="10">
         <f t="shared" ref="R24:AB24" si="1">AVERAGE(R4:R23)</f>
         <v>1.21</v>
       </c>
-      <c r="S24" s="13">
+      <c r="S24" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="9">
         <f t="shared" si="1"/>
         <v>5.85</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="9">
         <f t="shared" si="1"/>
         <v>14.05</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="9">
         <f t="shared" si="1"/>
         <v>21.2</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="9">
         <f t="shared" si="1"/>
         <v>25.55</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="9">
         <f t="shared" si="1"/>
         <v>26.85</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="Y24" s="9">
         <f t="shared" si="1"/>
         <v>23.9</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="9">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="9">
         <f t="shared" si="1"/>
         <v>8.15</v>
       </c>
-      <c r="AB24" s="13">
+      <c r="AB24" s="9">
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="6">
         <f>STDEV(B4:B13)/SQRT(10)</f>
         <v>1.9835434062415946</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="15">
         <f t="shared" ref="E25:J25" si="2">STDEV(E4:E23)</f>
         <v>1.7651599003161762</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="15">
         <f t="shared" si="2"/>
         <v>1.6982963599783716</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="15">
         <f t="shared" si="2"/>
         <v>3.8443396531031198</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="15">
         <f t="shared" si="2"/>
         <v>4.3152117713478333</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="15">
         <f t="shared" si="2"/>
         <v>3.9185792269513624</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="15">
         <f t="shared" si="2"/>
         <v>8.7473304198300177</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="15">
         <f>STDEV(K4:K19)</f>
         <v>2.2647663602823727</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="15">
         <f>STDEV(L4:L23)</f>
         <v>4.7002239588298229</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="15">
         <f>STDEV(M4:M23)</f>
         <v>3.80408367830927</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="15">
         <f>STDEV(N4:N23)</f>
         <v>1.8202082009311036</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="15">
         <f>STDEV(O4:O23)</f>
         <v>1.3088765773505318</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="5" t="s">
+      <c r="P25" s="6"/>
+      <c r="Q25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="10">
         <f t="shared" ref="R25:AB25" si="3">STDEV(R4:R23)</f>
         <v>0.15525869752737009</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="15">
         <f t="shared" si="3"/>
         <v>1.1239029738980326</v>
       </c>
-      <c r="T25" s="19">
+      <c r="T25" s="15">
         <f t="shared" si="3"/>
         <v>2.0332758116683989</v>
       </c>
-      <c r="U25" s="19">
+      <c r="U25" s="15">
         <f t="shared" si="3"/>
         <v>3.1367935354770351</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="15">
         <f t="shared" si="3"/>
         <v>3.458018903482476</v>
       </c>
-      <c r="W25" s="19">
+      <c r="W25" s="15">
         <f t="shared" si="3"/>
         <v>3.1867323637065561</v>
       </c>
-      <c r="X25" s="19">
+      <c r="X25" s="15">
         <f t="shared" si="3"/>
         <v>5.1938729084829989</v>
       </c>
-      <c r="Y25" s="19">
+      <c r="Y25" s="15">
         <f t="shared" si="3"/>
         <v>4.3757706088245296</v>
       </c>
-      <c r="Z25" s="19">
+      <c r="Z25" s="15">
         <f t="shared" si="3"/>
         <v>2.3951705795753164</v>
       </c>
-      <c r="AA25" s="19">
+      <c r="AA25" s="15">
         <f t="shared" si="3"/>
         <v>1.8994459025837254</v>
       </c>
-      <c r="AB25" s="19">
+      <c r="AB25" s="15">
         <f t="shared" si="3"/>
         <v>1.276302224561664</v>
       </c>
     </row>
     <row r="26" spans="1:28">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="10">
         <f t="shared" ref="E26:J26" si="4">STDEV(E4:E23)/SQRT(20)</f>
         <v>0.39470175282637221</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="10">
         <f t="shared" si="4"/>
         <v>0.37975061068520921</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="15">
         <f t="shared" si="4"/>
         <v>0.85962047929365359</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="15">
         <f t="shared" si="4"/>
         <v>0.96491068580410344</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="15">
         <f t="shared" si="4"/>
         <v>0.87622095266818223</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="15">
         <f t="shared" si="4"/>
         <v>1.9559625440391692</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="15">
         <f>STDEV(K4:K19)/SQRT(16)</f>
         <v>0.56619159007059316</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="15">
         <f>STDEV(L4:L23)/SQRT(20)</f>
         <v>1.0510020281416657</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="15">
         <f>STDEV(M4:M23)/SQRT(20)</f>
         <v>0.85061896967969697</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="10">
         <f>STDEV(N4:N23)/SQRT(20)</f>
         <v>0.40701092704845432</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="10">
         <f>STDEV(O4:O23)/SQRT(20)</f>
         <v>0.29267370011130506</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="16">
         <f t="shared" ref="R26:W26" si="5">STDEV(R4:R23)/SQRT(20)</f>
         <v>3.4716900176927801E-2</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="10">
         <f t="shared" si="5"/>
         <v>0.25131234497501725</v>
       </c>
-      <c r="T26" s="14">
+      <c r="T26" s="10">
         <f t="shared" si="5"/>
         <v>0.45465429318966</v>
       </c>
-      <c r="U26" s="19">
+      <c r="U26" s="15">
         <f t="shared" si="5"/>
         <v>0.70140835767085485</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="15">
         <f t="shared" si="5"/>
         <v>0.77323653356661004</v>
       </c>
-      <c r="W26" s="19">
+      <c r="W26" s="15">
         <f t="shared" si="5"/>
         <v>0.71257501913464427</v>
       </c>
-      <c r="X26" s="19">
+      <c r="X26" s="15">
         <f>STDEV(X4:X19)/SQRT(16)</f>
         <v>1.2583057392117916</v>
       </c>
-      <c r="Y26" s="19">
+      <c r="Y26" s="15">
         <f>STDEV(Y4:Y23)/SQRT(20)</f>
         <v>0.9784520535277289</v>
       </c>
-      <c r="Z26" s="19">
+      <c r="Z26" s="15">
         <f>STDEV(Z4:Z23)/SQRT(20)</f>
         <v>0.53557642336379763</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA26" s="10">
         <f>STDEV(AA4:AA23)/SQRT(20)</f>
         <v>0.42472901577606531</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="10">
         <f>STDEV(AB4:AB23)/SQRT(20)</f>
         <v>0.28538985339540823</v>
       </c>
@@ -3411,654 +3411,656 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="19" width="8.5703125"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:20" ht="13.35" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="2"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="24" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="25" t="s">
+      <c r="Q3" s="28"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="21">
+      <c r="A4" s="17">
         <f>'5-25-2012'!E$2</f>
         <v>185</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <f>'5-25-2012'!E$24</f>
         <v>5.8</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <f>'5-25-2012'!E$25</f>
         <v>1.7651599003161762</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="18">
         <f>'5-25-2012'!E$26</f>
         <v>0.39470175282637221</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="26" t="s">
+      <c r="M4" s="17"/>
+      <c r="N4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q4" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="26" t="s">
+      <c r="S4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="28" t="s">
+      <c r="T4" s="23" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="21">
+      <c r="A5" s="17">
         <f>'5-25-2012'!F$2</f>
         <v>235</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <f>'5-25-2012'!F$24</f>
         <v>8.4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <f>'5-25-2012'!F$25</f>
         <v>1.6982963599783716</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="18">
         <f>'5-25-2012'!F$26</f>
         <v>0.37975061068520921</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="21">
+      <c r="N5" s="17">
         <v>670</v>
       </c>
-      <c r="O5" s="21">
+      <c r="O5" s="17">
         <f>0.6</f>
         <v>0.6</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="17">
         <v>900</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="17">
         <f>P5*3</f>
         <v>2700</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="24">
         <f>(PI()*P5*0.000001)/(N5*0.000000001)</f>
         <v>4220.0498331803183</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="25">
         <f>(PI()*Q5*0.000001)/(N5*0.000000001)</f>
         <v>12660.149499540958</v>
       </c>
-      <c r="T5" s="25">
-        <f>ATAN(435.1*0.000001/0.6)</f>
+      <c r="T5" s="20">
+        <f>ATAN(435.1*0.000001/O5)</f>
         <v>7.2516653955304088E-4</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <f>'5-25-2012'!G$2</f>
         <v>285</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <f>'5-25-2012'!G$24</f>
         <v>34.6</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <f>'5-25-2012'!G$25</f>
         <v>3.8443396531031198</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <f>'5-25-2012'!G$26</f>
         <v>0.85962047929365359</v>
       </c>
-      <c r="M6" s="21" t="s">
+      <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="17">
         <f>AVERAGE(541,551)</f>
         <v>546</v>
       </c>
-      <c r="O6" s="21">
+      <c r="O6" s="17">
         <f>0.6</f>
         <v>0.6</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="17">
         <v>900</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="17">
         <f>P6*3</f>
         <v>2700</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="24">
         <f>(PI()*P6*0.000001)/(N6*0.000000001)</f>
         <v>5178.449428994164</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="25">
         <f>(PI()*Q6*0.000001)/(N6*0.000000001)</f>
         <v>15535.348286982493</v>
       </c>
-      <c r="T6" s="25">
-        <f>ATAN(447.1*0.000001/0.6)</f>
+      <c r="T6" s="20">
+        <f>ATAN(447.1*0.000001/O6)</f>
         <v>7.4516652874297954E-4</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <f>'5-25-2012'!H$2</f>
         <v>335</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <f>'5-25-2012'!H$24</f>
         <v>22.9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <f>'5-25-2012'!H$25</f>
         <v>4.3152117713478333</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <f>'5-25-2012'!H$26</f>
         <v>0.96491068580410344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="21">
+      <c r="A8" s="17">
         <f>'5-25-2012'!I$2</f>
         <v>385</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <f>'5-25-2012'!I$24</f>
         <v>52.25</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <f>'5-25-2012'!I$25</f>
         <v>3.9185792269513624</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <f>'5-25-2012'!I$26</f>
         <v>0.87622095266818223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="21">
+      <c r="A9" s="17">
         <f>'5-25-2012'!J$2</f>
         <v>435</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <f>'5-25-2012'!J$24</f>
         <v>104.9</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <f>'5-25-2012'!J$25</f>
         <v>8.7473304198300177</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <f>'5-25-2012'!J$26</f>
         <v>1.9559625440391692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <f>'5-25-2012'!K$2</f>
         <v>485</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <f>'5-25-2012'!K$24</f>
         <v>10.9375</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <f>'5-25-2012'!K$25</f>
         <v>2.2647663602823727</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <f>'5-25-2012'!K$26</f>
         <v>0.56619159007059316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <f>'5-25-2012'!L$2</f>
         <v>535</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <f>'5-25-2012'!L$24</f>
         <v>35.75</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <f>'5-25-2012'!L$25</f>
         <v>4.7002239588298229</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <f>'5-25-2012'!L$26</f>
         <v>1.0510020281416657</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="21">
+      <c r="A12" s="17">
         <f>'5-25-2012'!M$2</f>
         <v>585</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <f>'5-25-2012'!M$24</f>
         <v>23.45</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <f>'5-25-2012'!M$25</f>
         <v>3.80408367830927</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <f>'5-25-2012'!M$26</f>
         <v>0.85061896967969697</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="21">
+      <c r="A13" s="17">
         <f>'5-25-2012'!N$2</f>
         <v>635</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <f>'5-25-2012'!N$24</f>
         <v>7.55</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <f>'5-25-2012'!N$25</f>
         <v>1.8202082009311036</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="18">
         <f>'5-25-2012'!N$26</f>
         <v>0.40701092704845432</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="21">
+      <c r="A14" s="17">
         <f>'5-25-2012'!O$2</f>
         <v>685</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <f>'5-25-2012'!O$24</f>
         <v>3.35</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <f>'5-25-2012'!O$25</f>
         <v>1.3088765773505318</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="18">
         <f>'5-25-2012'!O$26</f>
         <v>0.29267370011130506</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:13" ht="13.35" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="L19" s="24" t="s">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="L19" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M19" s="28"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="21">
+      <c r="A21" s="17">
         <f>'5-25-2012'!R$2</f>
         <v>185</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="18">
         <f>'5-25-2012'!R$24</f>
         <v>1.21</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <f>'5-25-2012'!R$25</f>
         <v>0.15525869752737009</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="19">
         <f>'5-25-2012'!R$26</f>
         <v>3.4716900176927801E-2</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="17">
         <v>185</v>
       </c>
-      <c r="M21" s="21">
+      <c r="M21" s="17">
         <v>1.2845299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="21">
+      <c r="A22" s="17">
         <f>'5-25-2012'!S$2</f>
         <v>235</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <f>'5-25-2012'!S$24</f>
         <v>2</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <f>'5-25-2012'!S$25</f>
         <v>1.1239029738980326</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="18">
         <f>'5-25-2012'!S$26</f>
         <v>0.25131234497501725</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="17">
         <v>235</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="17">
         <v>1.60362</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="21">
+      <c r="A23" s="17">
         <f>'5-25-2012'!T$2</f>
         <v>285</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <f>'5-25-2012'!T$24</f>
         <v>5.85</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <f>'5-25-2012'!T$25</f>
         <v>2.0332758116683989</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="18">
         <f>'5-25-2012'!T$26</f>
         <v>0.45465429318966</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="17">
         <v>285</v>
       </c>
-      <c r="M23" s="21">
+      <c r="M23" s="17">
         <v>6.5816100000000004</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="21">
+      <c r="A24" s="17">
         <f>'5-25-2012'!U$2</f>
         <v>335</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <f>'5-25-2012'!U$24</f>
         <v>14.05</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <f>'5-25-2012'!U$25</f>
         <v>3.1367935354770351</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="6">
         <f>'5-25-2012'!U$26</f>
         <v>0.70140835767085485</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="17">
         <v>335</v>
       </c>
-      <c r="M24" s="21">
+      <c r="M24" s="17">
         <v>13.9903</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="21">
+      <c r="A25" s="17">
         <f>'5-25-2012'!V$2</f>
         <v>385</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <f>'5-25-2012'!V$24</f>
         <v>21.2</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <f>'5-25-2012'!V$25</f>
         <v>3.458018903482476</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="6">
         <f>'5-25-2012'!V$26</f>
         <v>0.77323653356661004</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="17">
         <v>385</v>
       </c>
-      <c r="M25" s="21">
+      <c r="M25" s="17">
         <v>21.326799999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="21">
+      <c r="A26" s="17">
         <f>'5-25-2012'!W$2</f>
         <v>435</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <f>'5-25-2012'!W$24</f>
         <v>25.55</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <f>'5-25-2012'!W$25</f>
         <v>3.1867323637065561</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="6">
         <f>'5-25-2012'!W$26</f>
         <v>0.71257501913464427</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="17">
         <v>435</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="17">
         <v>26.314399999999999</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="21">
+      <c r="A27" s="17">
         <f>'5-25-2012'!X$2</f>
         <v>485</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="7">
         <f>'5-25-2012'!X$24</f>
         <v>26.85</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <f>'5-25-2012'!X$25</f>
         <v>5.1938729084829989</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="6">
         <f>'5-25-2012'!X$26</f>
         <v>1.2583057392117916</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="17">
         <v>485</v>
       </c>
-      <c r="M27" s="21">
+      <c r="M27" s="17">
         <v>27.344999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="21">
+      <c r="A28" s="17">
         <f>'5-25-2012'!Y$2</f>
         <v>535</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <f>'5-25-2012'!Y$24</f>
         <v>23.9</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <f>'5-25-2012'!Y$25</f>
         <v>4.3757706088245296</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="6">
         <f>'5-25-2012'!Y$26</f>
         <v>0.9784520535277289</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="17">
         <v>535</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="17">
         <v>23.861599999999999</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="21">
+      <c r="A29" s="17">
         <f>'5-25-2012'!Z$2</f>
         <v>585</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <f>'5-25-2012'!Z$24</f>
         <v>16.5</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <f>'5-25-2012'!Z$25</f>
         <v>2.3951705795753164</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="6">
         <f>'5-25-2012'!Z$26</f>
         <v>0.53557642336379763</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="17">
         <v>585</v>
       </c>
-      <c r="M29" s="21">
+      <c r="M29" s="17">
         <v>16.683700000000002</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="21">
+      <c r="A30" s="17">
         <f>'5-25-2012'!AA$2</f>
         <v>635</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <f>'5-25-2012'!AA$24</f>
         <v>8.15</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <f>'5-25-2012'!AA$25</f>
         <v>1.8994459025837254</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="18">
         <f>'5-25-2012'!AA$26</f>
         <v>0.42472901577606531</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="17">
         <v>635</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="17">
         <v>8.2721499999999999</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="21">
+      <c r="A31" s="17">
         <f>'5-25-2012'!AB$2</f>
         <v>685</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <f>'5-25-2012'!AB$24</f>
         <v>2.95</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <f>'5-25-2012'!AB$25</f>
         <v>1.276302224561664</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="18">
         <f>'5-25-2012'!AB$26</f>
         <v>0.28538985339540823</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="17">
         <v>685</v>
       </c>
-      <c r="M31" s="21">
+      <c r="M31" s="17">
         <v>2.93628</v>
       </c>
     </row>
@@ -4091,155 +4093,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="21">
+      <c r="A1" s="17">
         <f>'5-25-2012'!E$2</f>
         <v>185</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="7">
         <f>'5-25-2012'!E$24</f>
         <v>5.8</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="7">
         <f>'5-25-2012'!E$25</f>
         <v>1.7651599003161762</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21">
+      <c r="A2" s="17">
         <f>'5-25-2012'!F$2</f>
         <v>235</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="7">
         <f>'5-25-2012'!F$24</f>
         <v>8.4</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <f>'5-25-2012'!F$25</f>
         <v>1.6982963599783716</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="21">
+      <c r="A3" s="17">
         <f>'5-25-2012'!G$2</f>
         <v>285</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <f>'5-25-2012'!G$24</f>
         <v>34.6</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <f>'5-25-2012'!G$25</f>
         <v>3.8443396531031198</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21">
+      <c r="A4" s="17">
         <f>'5-25-2012'!H$2</f>
         <v>335</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <f>'5-25-2012'!H$24</f>
         <v>22.9</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <f>'5-25-2012'!H$25</f>
         <v>4.3152117713478333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21">
+      <c r="A5" s="17">
         <f>'5-25-2012'!I$2</f>
         <v>385</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <f>'5-25-2012'!I$24</f>
         <v>52.25</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <f>'5-25-2012'!I$25</f>
         <v>3.9185792269513624</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21">
+      <c r="A6" s="17">
         <f>'5-25-2012'!J$2</f>
         <v>435</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <f>'5-25-2012'!J$24</f>
         <v>104.9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <f>'5-25-2012'!J$25</f>
         <v>8.7473304198300177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21">
+      <c r="A7" s="17">
         <f>'5-25-2012'!K$2</f>
         <v>485</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <f>'5-25-2012'!K$24</f>
         <v>10.9375</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <f>'5-25-2012'!K$25</f>
         <v>2.2647663602823727</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21">
+      <c r="A8" s="17">
         <f>'5-25-2012'!L$2</f>
         <v>535</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <f>'5-25-2012'!L$24</f>
         <v>35.75</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <f>'5-25-2012'!L$25</f>
         <v>4.7002239588298229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="21">
+      <c r="A9" s="17">
         <f>'5-25-2012'!M$2</f>
         <v>585</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <f>'5-25-2012'!M$24</f>
         <v>23.45</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <f>'5-25-2012'!M$25</f>
         <v>3.80408367830927</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="21">
+      <c r="A10" s="17">
         <f>'5-25-2012'!N$2</f>
         <v>635</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <f>'5-25-2012'!N$24</f>
         <v>7.55</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <f>'5-25-2012'!N$25</f>
         <v>1.8202082009311036</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="21">
+      <c r="A11" s="17">
         <f>'5-25-2012'!O$2</f>
         <v>685</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <f>'5-25-2012'!O$24</f>
         <v>3.35</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <f>'5-25-2012'!O$25</f>
         <v>1.3088765773505318</v>
       </c>

--- a/Two Slit/Two Slit.xlsx
+++ b/Two Slit/Two Slit.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="472" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="472" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="5-25-2012" sheetId="1" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Intensity" sheetId="4" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Unknown</t>
   </si>
@@ -164,30 +165,120 @@
     <t>Bulb</t>
   </si>
   <si>
-    <t>One slit</t>
-  </si>
-  <si>
     <t>Pos.</t>
   </si>
   <si>
     <t>Fit</t>
+  </si>
+  <si>
+    <t>Double Slit Prediction</t>
+  </si>
+  <si>
+    <t>+/- 5</t>
+  </si>
+  <si>
+    <t>max intensity 5.960 @ max 435.1</t>
+  </si>
+  <si>
+    <t>position microns blocker to open both</t>
+  </si>
+  <si>
+    <t>position microns blocker to open on slit</t>
+  </si>
+  <si>
+    <t>look at graph.</t>
+  </si>
+  <si>
+    <t>did not do the bulb</t>
+  </si>
+  <si>
+    <t>Predicted max</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>microns</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>&lt;--- These are what we predict under IDEAL conditions (Things like ~4% lose from the slit, waves add exactly like vectors, uncertaincy about L, and other things cause measure value to be different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^ actually there is an small error in using geometric optics </t>
+  </si>
+  <si>
+    <t>One slit Prediction</t>
+  </si>
+  <si>
+    <t>Predicted Maximum</t>
+  </si>
+  <si>
+    <t>^predicted by alpha</t>
+  </si>
+  <si>
+    <t>Single Slit</t>
+  </si>
+  <si>
+    <t>Double Slit</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Fit Intensity</t>
+  </si>
+  <si>
+    <t>Predicted Max (*)</t>
+  </si>
+  <si>
+    <t>Volts</t>
+  </si>
+  <si>
+    <t>*This took over two hours to compute &lt;-&lt;;</t>
+  </si>
+  <si>
+    <t>The reduced signfig represent the increase uncertaincy in control break the firt manually</t>
+  </si>
+  <si>
+    <t>^regression did not exit properly</t>
+  </si>
+  <si>
+    <t>Predicted Max</t>
+  </si>
+  <si>
+    <t>Precited Min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0."/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -216,8 +307,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +329,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -254,11 +359,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -289,18 +472,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,9 +499,52 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,11 +757,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49837952"/>
-        <c:axId val="72692864"/>
+        <c:axId val="46984576"/>
+        <c:axId val="49837568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49837952"/>
+        <c:axId val="46984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -602,12 +828,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72692864"/>
+        <c:crossAx val="49837568"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72692864"/>
+        <c:axId val="49837568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -656,7 +882,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49837952"/>
+        <c:crossAx val="46984576"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -670,7 +896,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -814,11 +1040,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72895488"/>
-        <c:axId val="72914816"/>
+        <c:axId val="72730880"/>
+        <c:axId val="72895104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72895488"/>
+        <c:axId val="72730880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,12 +1111,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72914816"/>
+        <c:crossAx val="72895104"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72914816"/>
+        <c:axId val="72895104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,7 +1165,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72895488"/>
+        <c:crossAx val="72730880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -953,7 +1179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1311,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3100,7 +3326,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="14">
-        <f t="shared" ref="E24:J24" si="0">AVERAGE(E4:E23)</f>
+        <f t="shared" ref="E24:I24" si="0">AVERAGE(E4:E23)</f>
         <v>5.8</v>
       </c>
       <c r="F24" s="14">
@@ -3408,28 +3634,1206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A2:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="19" width="8.5703125"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="1025" width="8.5703125"/>
+    <col min="1" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="2" spans="1:14">
+      <c r="A2" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="F2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="51">
+        <v>1</v>
+      </c>
+      <c r="B4" s="52">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C4" s="51">
+        <v>100</v>
+      </c>
+      <c r="D4" s="51">
+        <v>4.9474299999999999E-2</v>
+      </c>
+      <c r="F4" s="51">
+        <v>1</v>
+      </c>
+      <c r="G4" s="53">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H4" s="51">
+        <v>48</v>
+      </c>
+      <c r="J4" s="51">
+        <v>50</v>
+      </c>
+      <c r="K4" s="51">
+        <v>3.3142983084356002E-2</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="54"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="51">
+        <v>2</v>
+      </c>
+      <c r="B5" s="52">
+        <v>0.214</v>
+      </c>
+      <c r="C5" s="51">
+        <v>150</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0.22292000000000001</v>
+      </c>
+      <c r="F5" s="51">
+        <v>2</v>
+      </c>
+      <c r="G5" s="53">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H5" s="51">
+        <v>82</v>
+      </c>
+      <c r="J5" s="51">
+        <v>60</v>
+      </c>
+      <c r="K5" s="51">
+        <v>7.45484040244088E-3</v>
+      </c>
+      <c r="M5" s="55">
+        <v>450</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="51">
+        <v>3</v>
+      </c>
+      <c r="B6" s="52">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C6" s="51">
+        <v>200</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0.513679</v>
+      </c>
+      <c r="F6" s="51">
+        <v>3</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H6" s="51">
+        <v>179.1</v>
+      </c>
+      <c r="J6" s="51">
+        <v>70</v>
+      </c>
+      <c r="K6" s="51">
+        <v>-5.1754964038234E-3</v>
+      </c>
+      <c r="M6" s="56">
+        <v>7</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="51">
+        <v>4</v>
+      </c>
+      <c r="B7" s="52">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C7" s="51">
+        <v>250</v>
+      </c>
+      <c r="D7" s="51">
+        <v>0.89203500000000002</v>
+      </c>
+      <c r="F7" s="51">
+        <v>4</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0.128</v>
+      </c>
+      <c r="H7" s="51">
+        <v>213.2</v>
+      </c>
+      <c r="J7" s="51">
+        <v>80</v>
+      </c>
+      <c r="K7" s="51">
+        <v>6.1334775619396901E-3</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="51">
+        <v>5</v>
+      </c>
+      <c r="B8" s="52">
+        <v>1.175</v>
+      </c>
+      <c r="C8" s="51">
+        <v>300</v>
+      </c>
+      <c r="D8" s="51">
+        <v>1.2410099999999999</v>
+      </c>
+      <c r="F8" s="51">
+        <v>5</v>
+      </c>
+      <c r="G8" s="53">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H8" s="51">
+        <v>266</v>
+      </c>
+      <c r="J8" s="51">
+        <v>90</v>
+      </c>
+      <c r="K8" s="51">
+        <v>5.0359622400747803E-2</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="51">
+        <v>6</v>
+      </c>
+      <c r="B9" s="52">
+        <v>1.42</v>
+      </c>
+      <c r="C9" s="51">
+        <v>350</v>
+      </c>
+      <c r="D9" s="51">
+        <v>1.4524300000000001</v>
+      </c>
+      <c r="F9" s="51">
+        <v>6</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0.115</v>
+      </c>
+      <c r="H9" s="51">
+        <v>306</v>
+      </c>
+      <c r="J9" s="51">
+        <v>100</v>
+      </c>
+      <c r="K9" s="51">
+        <v>0.122411673397923</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="51">
+        <v>7</v>
+      </c>
+      <c r="B10" s="52">
+        <v>1.48</v>
+      </c>
+      <c r="C10" s="51">
+        <v>400</v>
+      </c>
+      <c r="D10" s="51">
+        <v>1.4715</v>
+      </c>
+      <c r="F10" s="51">
+        <v>7</v>
+      </c>
+      <c r="G10" s="53">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="H10" s="51">
+        <v>357</v>
+      </c>
+      <c r="J10" s="51">
+        <v>110</v>
+      </c>
+      <c r="K10" s="51">
+        <v>0.210892542454161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="51">
+        <v>8</v>
+      </c>
+      <c r="B11" s="52">
+        <v>1.337</v>
+      </c>
+      <c r="C11" s="51">
+        <v>450</v>
+      </c>
+      <c r="D11" s="51">
+        <v>1.3055099999999999</v>
+      </c>
+      <c r="F11" s="51">
+        <v>8</v>
+      </c>
+      <c r="G11" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="51">
+        <v>399.5</v>
+      </c>
+      <c r="J11" s="51">
+        <v>120</v>
+      </c>
+      <c r="K11" s="51">
+        <v>0.30437539702023197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="51">
+        <v>9</v>
+      </c>
+      <c r="B12" s="52">
+        <v>1.034</v>
+      </c>
+      <c r="C12" s="51">
+        <v>500</v>
+      </c>
+      <c r="D12" s="51">
+        <v>1.0105599999999999</v>
+      </c>
+      <c r="F12" s="51">
+        <v>9</v>
+      </c>
+      <c r="G12" s="53">
+        <v>4.8440000000000003</v>
+      </c>
+      <c r="H12" s="51">
+        <v>447.8</v>
+      </c>
+      <c r="J12" s="51">
+        <v>130</v>
+      </c>
+      <c r="K12" s="51">
+        <v>0.39143340454690601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="51">
+        <v>10</v>
+      </c>
+      <c r="B13" s="52">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C13" s="51">
+        <v>550</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0.66724399999999995</v>
+      </c>
+      <c r="F13" s="51">
+        <v>10</v>
+      </c>
+      <c r="G13" s="53">
+        <v>0.153</v>
+      </c>
+      <c r="H13" s="51">
+        <v>493</v>
+      </c>
+      <c r="J13" s="51">
+        <v>140</v>
+      </c>
+      <c r="K13" s="51">
+        <v>0.46063973248495099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="51">
+        <v>11</v>
+      </c>
+      <c r="B14" s="52">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C14" s="51">
+        <v>600</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0.354547</v>
+      </c>
+      <c r="F14" s="51">
+        <v>11</v>
+      </c>
+      <c r="G14" s="53">
+        <v>3.89</v>
+      </c>
+      <c r="H14" s="51">
+        <v>537</v>
+      </c>
+      <c r="J14" s="51">
+        <v>150</v>
+      </c>
+      <c r="K14" s="51">
+        <v>0.50056754828513705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="51">
+        <v>12</v>
+      </c>
+      <c r="B15" s="52">
+        <v>0.111</v>
+      </c>
+      <c r="C15" s="51">
+        <v>650</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0.128526</v>
+      </c>
+      <c r="F15" s="51">
+        <v>12</v>
+      </c>
+      <c r="G15" s="53">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H15" s="51">
+        <v>586.4</v>
+      </c>
+      <c r="J15" s="51">
+        <v>160</v>
+      </c>
+      <c r="K15" s="51">
+        <v>0.49979001939823298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="51">
+        <v>13</v>
+      </c>
+      <c r="B16" s="52">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C16" s="51">
+        <v>700</v>
+      </c>
+      <c r="D16" s="51">
+        <v>1.02237E-2</v>
+      </c>
+      <c r="F16" s="51">
+        <v>13</v>
+      </c>
+      <c r="G16" s="53">
+        <v>1.853</v>
+      </c>
+      <c r="H16" s="51">
+        <v>627.29999999999995</v>
+      </c>
+      <c r="J16" s="51">
+        <v>170</v>
+      </c>
+      <c r="K16" s="51">
+        <v>0.44688031327500899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="51">
+        <v>14</v>
+      </c>
+      <c r="B17" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="51">
+        <v>750</v>
+      </c>
+      <c r="D17" s="51">
+        <v>-1.50514E-2</v>
+      </c>
+      <c r="F17" s="51">
+        <v>14</v>
+      </c>
+      <c r="G17" s="53">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H17" s="51">
+        <v>681</v>
+      </c>
+      <c r="J17" s="51">
+        <v>180</v>
+      </c>
+      <c r="K17" s="51">
+        <v>0.33042608398317402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="51">
+        <v>15</v>
+      </c>
+      <c r="B18" s="52">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C18" s="51">
+        <v>800</v>
+      </c>
+      <c r="D18" s="51">
+        <v>1.27736E-2</v>
+      </c>
+      <c r="F18" s="51">
+        <v>15</v>
+      </c>
+      <c r="G18" s="53">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H18" s="51">
+        <v>709.2</v>
+      </c>
+      <c r="J18" s="51">
+        <v>190</v>
+      </c>
+      <c r="K18" s="51">
+        <v>0.164691729176315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="51">
+        <v>16</v>
+      </c>
+      <c r="B19" s="52">
+        <v>0.03</v>
+      </c>
+      <c r="C19" s="51">
+        <v>850</v>
+      </c>
+      <c r="D19" s="51">
+        <v>4.7796100000000001E-2</v>
+      </c>
+      <c r="F19" s="51">
+        <v>16</v>
+      </c>
+      <c r="G19" s="53">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19" s="51">
+        <v>811.4</v>
+      </c>
+      <c r="J19" s="51">
+        <v>200</v>
+      </c>
+      <c r="K19" s="51">
+        <v>4.2506941991820001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="51">
+        <v>17</v>
+      </c>
+      <c r="B20" s="52">
+        <v>0.04</v>
+      </c>
+      <c r="C20" s="51">
+        <v>800</v>
+      </c>
+      <c r="D20" s="51">
+        <v>6.1440500000000002E-2</v>
+      </c>
+      <c r="F20" s="51">
+        <v>17</v>
+      </c>
+      <c r="G20" s="53">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H20" s="51">
+        <v>839.5</v>
+      </c>
+      <c r="J20" s="51">
+        <v>210</v>
+      </c>
+      <c r="K20" s="51">
+        <v>7.1676305023922499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="51">
+        <v>18</v>
+      </c>
+      <c r="B21" s="52">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C21" s="51">
+        <v>950</v>
+      </c>
+      <c r="D21" s="51">
+        <v>6.2783099999999994E-2</v>
+      </c>
+      <c r="J21" s="51">
+        <v>220</v>
+      </c>
+      <c r="K21" s="51">
+        <v>0.34661164707645498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="51">
+        <v>19</v>
+      </c>
+      <c r="B22" s="52">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="51">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="51">
+        <v>0.106598</v>
+      </c>
+      <c r="J22" s="51">
+        <v>230</v>
+      </c>
+      <c r="K22" s="51">
+        <v>0.81333319399491799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="54"/>
+      <c r="J23" s="51">
+        <v>240</v>
+      </c>
+      <c r="K23" s="51">
+        <v>1.3254803384876399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="54">
+        <v>383</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="51">
+        <v>250</v>
+      </c>
+      <c r="K24" s="51">
+        <v>1.7352967700387201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="54">
+        <v>1.48</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="51">
+        <v>260</v>
+      </c>
+      <c r="K25" s="51">
+        <v>1.8950261781322399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="54"/>
+      <c r="J26" s="51">
+        <v>270</v>
+      </c>
+      <c r="K26" s="51">
+        <v>1.6618120220413699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="54">
+        <v>750</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="51">
+        <v>280</v>
+      </c>
+      <c r="K27" s="51">
+        <v>1.08327631158912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="54">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="J28" s="51">
+        <v>290</v>
+      </c>
+      <c r="K28" s="51">
+        <v>0.45447943094620702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="J29" s="51">
+        <v>300</v>
+      </c>
+      <c r="K29" s="51">
+        <v>8.7018487321469704E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="J30" s="51">
+        <v>310</v>
+      </c>
+      <c r="K30" s="51">
+        <v>0.285519967249384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31" s="51">
+        <v>320</v>
+      </c>
+      <c r="K31" s="51">
+        <v>1.08362747854942</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32" s="51">
+        <v>330</v>
+      </c>
+      <c r="K32" s="51">
+        <v>2.1629682849868002</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="51">
+        <v>340</v>
+      </c>
+      <c r="K33" s="51">
+        <v>3.18164380555086</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="51">
+        <v>350</v>
+      </c>
+      <c r="K34" s="51">
+        <v>3.7977554592309199</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="51">
+        <v>360</v>
+      </c>
+      <c r="K35" s="51">
+        <v>3.6732226018500498</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="51">
+        <v>370</v>
+      </c>
+      <c r="K36" s="51">
+        <v>2.7653597761073598</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="51">
+        <v>380</v>
+      </c>
+      <c r="K37" s="51">
+        <v>1.5321968701917701</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="51">
+        <v>390</v>
+      </c>
+      <c r="K38" s="51">
+        <v>0.48026571058731299</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="51">
+        <v>400</v>
+      </c>
+      <c r="K39" s="51">
+        <v>0.116077205096975</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="51">
+        <v>410</v>
+      </c>
+      <c r="K40" s="51">
+        <v>0.75249803122881997</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" s="51">
+        <v>420</v>
+      </c>
+      <c r="K41" s="51">
+        <v>2.03544455921064</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" s="51">
+        <v>430</v>
+      </c>
+      <c r="K42" s="51">
+        <v>3.4673519260852901</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43" s="51">
+        <v>440</v>
+      </c>
+      <c r="K43" s="51">
+        <v>4.5506552688956301</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44" s="51">
+        <v>450</v>
+      </c>
+      <c r="K44" s="51">
+        <v>4.7896236144614397</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45" s="51">
+        <v>460</v>
+      </c>
+      <c r="K45" s="51">
+        <v>3.9939313286620601</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" s="51">
+        <v>470</v>
+      </c>
+      <c r="K46" s="51">
+        <v>2.6176535372930698</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47" s="51">
+        <v>480</v>
+      </c>
+      <c r="K47" s="51">
+        <v>1.1965967768777701</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11">
+      <c r="J48" s="51">
+        <v>490</v>
+      </c>
+      <c r="K48" s="51">
+        <v>0.26656758393945301</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="51">
+        <v>500</v>
+      </c>
+      <c r="K49" s="51">
+        <v>0.30450307184172998</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" s="51">
+        <v>510</v>
+      </c>
+      <c r="K50" s="51">
+        <v>1.1795950845356999</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="51">
+        <v>520</v>
+      </c>
+      <c r="K51" s="51">
+        <v>2.4024983669036302</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="51">
+        <v>530</v>
+      </c>
+      <c r="K52" s="51">
+        <v>3.4792336276023899</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53" s="51">
+        <v>540</v>
+      </c>
+      <c r="K53" s="51">
+        <v>3.9196257150613198</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="51">
+        <v>550</v>
+      </c>
+      <c r="K54" s="51">
+        <v>3.5278271808445201</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55" s="51">
+        <v>560</v>
+      </c>
+      <c r="K55" s="51">
+        <v>2.60689646296911</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56" s="51">
+        <v>570</v>
+      </c>
+      <c r="K56" s="51">
+        <v>1.50821866396884</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" s="51">
+        <v>580</v>
+      </c>
+      <c r="K57" s="51">
+        <v>0.58317888637746795</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58" s="51">
+        <v>590</v>
+      </c>
+      <c r="K58" s="51">
+        <v>0.178119742525332</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59" s="51">
+        <v>600</v>
+      </c>
+      <c r="K59" s="51">
+        <v>0.38768818833507401</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60" s="51">
+        <v>610</v>
+      </c>
+      <c r="K60" s="51">
+        <v>0.94313295227270499</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61" s="51">
+        <v>620</v>
+      </c>
+      <c r="K61" s="51">
+        <v>1.54737074651738</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62" s="51">
+        <v>630</v>
+      </c>
+      <c r="K62" s="51">
+        <v>1.90475724735677</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63" s="51">
+        <v>640</v>
+      </c>
+      <c r="K63" s="51">
+        <v>1.86364330941918</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64" s="51">
+        <v>650</v>
+      </c>
+      <c r="K64" s="51">
+        <v>1.53714750183782</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65" s="51">
+        <v>660</v>
+      </c>
+      <c r="K65" s="51">
+        <v>1.0668282403443401</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66" s="51">
+        <v>670</v>
+      </c>
+      <c r="K66" s="51">
+        <v>0.59424394067044495</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67" s="51">
+        <v>680</v>
+      </c>
+      <c r="K67" s="51">
+        <v>0.26095301854779401</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68" s="51">
+        <v>690</v>
+      </c>
+      <c r="K68" s="51">
+        <v>0.17564807300502999</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69" s="51">
+        <v>700</v>
+      </c>
+      <c r="K69" s="51">
+        <v>0.269257758955459</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70" s="51">
+        <v>710</v>
+      </c>
+      <c r="K70" s="51">
+        <v>0.412896917534885</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71" s="51">
+        <v>720</v>
+      </c>
+      <c r="K71" s="51">
+        <v>0.50684400137112795</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72" s="51">
+        <v>730</v>
+      </c>
+      <c r="K72" s="51">
+        <v>0.54341955886479298</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" s="51">
+        <v>740</v>
+      </c>
+      <c r="K73" s="51">
+        <v>0.53302882576335398</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" s="51">
+        <v>750</v>
+      </c>
+      <c r="K74" s="51">
+        <v>0.48607703781428502</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75" s="51">
+        <v>760</v>
+      </c>
+      <c r="K75" s="51">
+        <v>0.41296943076505899</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76" s="51">
+        <v>770</v>
+      </c>
+      <c r="K76" s="51">
+        <v>0.32411124036314998</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77" s="51">
+        <v>780</v>
+      </c>
+      <c r="K77" s="51">
+        <v>0.229907702356032</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78" s="51">
+        <v>790</v>
+      </c>
+      <c r="K78" s="51">
+        <v>0.14076405249117899</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79" s="51">
+        <v>800</v>
+      </c>
+      <c r="K79" s="51">
+        <v>6.7085526516063906E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80" s="51">
+        <v>810</v>
+      </c>
+      <c r="K80" s="51">
+        <v>1.92773601781609E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81" s="51">
+        <v>820</v>
+      </c>
+      <c r="K81" s="51">
+        <v>5.2182570569509999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82" s="51">
+        <v>830</v>
+      </c>
+      <c r="K82" s="51">
+        <v>1.73326102595323E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83" s="51">
+        <v>840</v>
+      </c>
+      <c r="K83" s="51">
+        <v>4.2203444590179502E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84" s="51">
+        <v>850</v>
+      </c>
+      <c r="K84" s="51">
+        <v>6.6402885177244395E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="11" width="8.5703125"/>
+    <col min="12" max="12" width="10.85546875" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10" style="17" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="17"/>
+    <col min="19" max="19" width="8" style="17" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="17" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="17"/>
+    <col min="23" max="1025" width="8.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
       <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:20" ht="13.35" customHeight="1">
+      <c r="Q1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="28"/>
+      <c r="U1" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="13.35" customHeight="1">
       <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
@@ -3438,8 +4842,33 @@
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="L2" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="32"/>
+      <c r="O2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="29"/>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -3450,20 +4879,42 @@
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="L3" s="37">
+        <v>185</v>
+      </c>
+      <c r="M3" s="48">
+        <v>6.9858344763199502</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="17">
+        <v>670</v>
+      </c>
+      <c r="P3" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>900</v>
+      </c>
+      <c r="R3" s="17">
+        <f>Q3*3</f>
+        <v>2700</v>
+      </c>
+      <c r="S3" s="23">
+        <f>(PI()*Q3*0.000001)/(O3*0.000000001)</f>
+        <v>4220.0498331803183</v>
+      </c>
+      <c r="T3" s="24">
+        <f>(PI()*R3*0.000001)/(O3*0.000000001)</f>
+        <v>12660.149499540958</v>
+      </c>
+      <c r="U3" s="20">
+        <f>ATAN(435.1*0.000001/P3)</f>
+        <v>7.6333318507426184E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="17">
         <f>'5-25-2012'!E$2</f>
         <v>185</v>
@@ -3480,30 +4931,44 @@
         <f>'5-25-2012'!E$26</f>
         <v>0.39470175282637221</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="T4" s="23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="L4" s="37">
+        <v>235</v>
+      </c>
+      <c r="M4" s="48">
+        <v>5.4962152004161497</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="17">
+        <f>AVERAGE(541,551)</f>
+        <v>546</v>
+      </c>
+      <c r="P4" s="17">
+        <f>0.57</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>900</v>
+      </c>
+      <c r="R4" s="17">
+        <f>Q4*3</f>
+        <v>2700</v>
+      </c>
+      <c r="S4" s="23">
+        <f>(PI()*Q4*0.000001)/(O4*0.000000001)</f>
+        <v>5178.449428994164</v>
+      </c>
+      <c r="T4" s="24">
+        <f>(PI()*R4*0.000001)/(O4*0.000000001)</f>
+        <v>15535.348286982493</v>
+      </c>
+      <c r="U4" s="20">
+        <f>ATAN(447.1*0.000001/P4)</f>
+        <v>7.8438580404488641E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="17">
         <f>'5-25-2012'!F$2</f>
         <v>235</v>
@@ -3520,37 +4985,14 @@
         <f>'5-25-2012'!F$26</f>
         <v>0.37975061068520921</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="17">
-        <v>670</v>
-      </c>
-      <c r="O5" s="17">
-        <f>0.6</f>
-        <v>0.6</v>
-      </c>
-      <c r="P5" s="17">
-        <v>900</v>
-      </c>
-      <c r="Q5" s="17">
-        <f>P5*3</f>
-        <v>2700</v>
-      </c>
-      <c r="R5" s="24">
-        <f>(PI()*P5*0.000001)/(N5*0.000000001)</f>
-        <v>4220.0498331803183</v>
-      </c>
-      <c r="S5" s="25">
-        <f>(PI()*Q5*0.000001)/(N5*0.000000001)</f>
-        <v>12660.149499540958</v>
-      </c>
-      <c r="T5" s="20">
-        <f>ATAN(435.1*0.000001/O5)</f>
-        <v>7.2516653955304088E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="L5" s="37">
+        <v>285</v>
+      </c>
+      <c r="M5" s="48">
+        <v>34.975031278318703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="17">
         <f>'5-25-2012'!G$2</f>
         <v>285</v>
@@ -3567,38 +5009,20 @@
         <f>'5-25-2012'!G$26</f>
         <v>0.85962047929365359</v>
       </c>
-      <c r="M6" s="17" t="s">
-        <v>28</v>
+      <c r="L6" s="37">
+        <v>335</v>
+      </c>
+      <c r="M6" s="48">
+        <v>23.014092284426301</v>
       </c>
       <c r="N6" s="17">
-        <f>AVERAGE(541,551)</f>
-        <v>546</v>
-      </c>
-      <c r="O6" s="17">
-        <f>0.6</f>
-        <v>0.6</v>
-      </c>
-      <c r="P6" s="17">
-        <v>900</v>
-      </c>
-      <c r="Q6" s="17">
-        <f>P6*3</f>
-        <v>2700</v>
-      </c>
-      <c r="R6" s="24">
-        <f>(PI()*P6*0.000001)/(N6*0.000000001)</f>
-        <v>5178.449428994164</v>
-      </c>
-      <c r="S6" s="25">
-        <f>(PI()*Q6*0.000001)/(N6*0.000000001)</f>
-        <v>15535.348286982493</v>
-      </c>
-      <c r="T6" s="20">
-        <f>ATAN(447.1*0.000001/O6)</f>
-        <v>7.4516652874297954E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>670</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="17">
         <f>'5-25-2012'!H$2</f>
         <v>335</v>
@@ -3615,8 +5039,14 @@
         <f>'5-25-2012'!H$26</f>
         <v>0.96491068580410344</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="L7" s="37">
+        <v>385</v>
+      </c>
+      <c r="M7" s="48">
+        <v>51.989134581119899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="17">
         <f>'5-25-2012'!I$2</f>
         <v>385</v>
@@ -3633,8 +5063,17 @@
         <f>'5-25-2012'!I$26</f>
         <v>0.87622095266818223</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="L8" s="37">
+        <v>435</v>
+      </c>
+      <c r="M8" s="48">
+        <v>105.009881530218</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="17">
         <f>'5-25-2012'!J$2</f>
         <v>435</v>
@@ -3651,8 +5090,26 @@
         <f>'5-25-2012'!J$26</f>
         <v>1.9559625440391692</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="L9" s="37">
+        <v>485</v>
+      </c>
+      <c r="M9" s="48">
+        <v>10.989732327582299</v>
+      </c>
+      <c r="N9" s="17">
+        <v>5.96</v>
+      </c>
+      <c r="O9" s="20">
+        <v>523</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="17">
         <f>'5-25-2012'!K$2</f>
         <v>485</v>
@@ -3669,8 +5126,26 @@
         <f>'5-25-2012'!K$26</f>
         <v>0.56619159007059316</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="L10" s="37">
+        <v>535</v>
+      </c>
+      <c r="M10" s="48">
+        <v>36.012366446538202</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1.512</v>
+      </c>
+      <c r="O10" s="20">
+        <v>549</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="17">
         <f>'5-25-2012'!L$2</f>
         <v>535</v>
@@ -3687,8 +5162,14 @@
         <f>'5-25-2012'!L$26</f>
         <v>1.0510020281416657</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="L11" s="37">
+        <v>585</v>
+      </c>
+      <c r="M11" s="48">
+        <v>22.9809617593558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="17">
         <f>'5-25-2012'!M$2</f>
         <v>585</v>
@@ -3705,8 +5186,17 @@
         <f>'5-25-2012'!M$26</f>
         <v>0.85061896967969697</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="L12" s="37">
+        <v>635</v>
+      </c>
+      <c r="M12" s="48">
+        <v>7.0348481156140501</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="17">
         <f>'5-25-2012'!N$2</f>
         <v>635</v>
@@ -3723,8 +5213,17 @@
         <f>'5-25-2012'!N$26</f>
         <v>0.40701092704845432</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="L13" s="37">
+        <v>685</v>
+      </c>
+      <c r="M13" s="48">
+        <v>5.5119020000907</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="17">
         <f>'5-25-2012'!O$2</f>
         <v>685</v>
@@ -3741,34 +5240,67 @@
         <f>'5-25-2012'!O$26</f>
         <v>0.29267370011130506</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="L14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="O14" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="17"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="L15" s="37">
+        <v>424</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="17"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="18"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="L16" s="37">
+        <v>110.6</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="30" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.35" customHeight="1">
+      <c r="L18" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+    </row>
+    <row r="19" spans="1:19" ht="13.35" customHeight="1">
       <c r="A19" s="29" t="s">
         <v>13</v>
       </c>
@@ -3777,12 +5309,18 @@
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="M19" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -3793,14 +5331,18 @@
       <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="L20" s="37">
+        <v>185</v>
+      </c>
+      <c r="M20" s="37">
+        <v>1.2845331139471801</v>
+      </c>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="17">
         <f>'5-25-2012'!R$2</f>
         <v>185</v>
@@ -3817,14 +5359,18 @@
         <f>'5-25-2012'!R$26</f>
         <v>3.4716900176927801E-2</v>
       </c>
-      <c r="L21" s="17">
-        <v>185</v>
-      </c>
-      <c r="M21" s="17">
-        <v>1.2845299999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21" s="37">
+        <v>235</v>
+      </c>
+      <c r="M21" s="37">
+        <v>1.6036199095033199</v>
+      </c>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="40"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="17">
         <f>'5-25-2012'!S$2</f>
         <v>235</v>
@@ -3841,14 +5387,18 @@
         <f>'5-25-2012'!S$26</f>
         <v>0.25131234497501725</v>
       </c>
-      <c r="L22" s="17">
-        <v>235</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1.60362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="L22" s="37">
+        <v>285</v>
+      </c>
+      <c r="M22" s="37">
+        <v>6.5816125051413499</v>
+      </c>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="41"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="17">
         <f>'5-25-2012'!T$2</f>
         <v>285</v>
@@ -3865,14 +5415,18 @@
         <f>'5-25-2012'!T$26</f>
         <v>0.45465429318966</v>
       </c>
-      <c r="L23" s="17">
-        <v>285</v>
-      </c>
-      <c r="M23" s="17">
-        <v>6.5816100000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="L23" s="37">
+        <v>335</v>
+      </c>
+      <c r="M23" s="37">
+        <v>13.990292060879799</v>
+      </c>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="41"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="17">
         <f>'5-25-2012'!U$2</f>
         <v>335</v>
@@ -3889,14 +5443,18 @@
         <f>'5-25-2012'!U$26</f>
         <v>0.70140835767085485</v>
       </c>
-      <c r="L24" s="17">
-        <v>335</v>
-      </c>
-      <c r="M24" s="17">
-        <v>13.9903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="L24" s="37">
+        <v>385</v>
+      </c>
+      <c r="M24" s="37">
+        <v>21.326779103250001</v>
+      </c>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="41"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="17">
         <f>'5-25-2012'!V$2</f>
         <v>385</v>
@@ -3913,14 +5471,18 @@
         <f>'5-25-2012'!V$26</f>
         <v>0.77323653356661004</v>
       </c>
-      <c r="L25" s="17">
-        <v>385</v>
-      </c>
-      <c r="M25" s="17">
-        <v>21.326799999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="L25" s="37">
+        <v>435</v>
+      </c>
+      <c r="M25" s="37">
+        <v>26.314438502674498</v>
+      </c>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="41"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="17">
         <f>'5-25-2012'!W$2</f>
         <v>435</v>
@@ -3937,14 +5499,18 @@
         <f>'5-25-2012'!W$26</f>
         <v>0.71257501913464427</v>
       </c>
-      <c r="L26" s="17">
-        <v>435</v>
-      </c>
-      <c r="M26" s="17">
-        <v>26.314399999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="L26" s="37">
+        <v>485</v>
+      </c>
+      <c r="M26" s="37">
+        <v>27.344960921431699</v>
+      </c>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="41"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="17">
         <f>'5-25-2012'!X$2</f>
         <v>485</v>
@@ -3961,14 +5527,18 @@
         <f>'5-25-2012'!X$26</f>
         <v>1.2583057392117916</v>
       </c>
-      <c r="L27" s="17">
-        <v>485</v>
-      </c>
-      <c r="M27" s="17">
-        <v>27.344999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="L27" s="37">
+        <v>535</v>
+      </c>
+      <c r="M27" s="37">
+        <v>23.861620732208401</v>
+      </c>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="41"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="17">
         <f>'5-25-2012'!Y$2</f>
         <v>535</v>
@@ -3985,14 +5555,18 @@
         <f>'5-25-2012'!Y$26</f>
         <v>0.9784520535277289</v>
       </c>
-      <c r="L28" s="17">
-        <v>535</v>
-      </c>
-      <c r="M28" s="17">
-        <v>23.861599999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="L28" s="37">
+        <v>585</v>
+      </c>
+      <c r="M28" s="37">
+        <v>16.6837104072399</v>
+      </c>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="41"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="17">
         <f>'5-25-2012'!Z$2</f>
         <v>585</v>
@@ -4009,14 +5583,18 @@
         <f>'5-25-2012'!Z$26</f>
         <v>0.53557642336379763</v>
       </c>
-      <c r="L29" s="17">
-        <v>585</v>
-      </c>
-      <c r="M29" s="17">
-        <v>16.683700000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="L29" s="37">
+        <v>635</v>
+      </c>
+      <c r="M29" s="37">
+        <v>8.2721513780351792</v>
+      </c>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="40"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="17">
         <f>'5-25-2012'!AA$2</f>
         <v>635</v>
@@ -4033,14 +5611,18 @@
         <f>'5-25-2012'!AA$26</f>
         <v>0.42472901577606531</v>
       </c>
-      <c r="L30" s="17">
-        <v>635</v>
-      </c>
-      <c r="M30" s="17">
-        <v>8.2721499999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="L30" s="37">
+        <v>685</v>
+      </c>
+      <c r="M30" s="37">
+        <v>2.9362813656932398</v>
+      </c>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="40"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="17">
         <f>'5-25-2012'!AB$2</f>
         <v>685</v>
@@ -4057,23 +5639,46 @@
         <f>'5-25-2012'!AB$26</f>
         <v>0.28538985339540823</v>
       </c>
-      <c r="L31" s="17">
-        <v>685</v>
-      </c>
-      <c r="M31" s="17">
-        <v>2.93628</v>
+      <c r="L31" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="43"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="L32" s="44">
+        <v>472</v>
+      </c>
+      <c r="M32" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13">
+      <c r="L33" s="46">
+        <f>0.999196*27.5</f>
+        <v>27.477889999999999</v>
+      </c>
+      <c r="M33" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13">
+      <c r="L34" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="L19:M19"/>
+  <mergeCells count="11">
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -4081,7 +5686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>

--- a/Two Slit/Two Slit.xlsx
+++ b/Two Slit/Two Slit.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>Unknown</t>
   </si>
@@ -177,15 +177,6 @@
     <t>+/- 5</t>
   </si>
   <si>
-    <t>max intensity 5.960 @ max 435.1</t>
-  </si>
-  <si>
-    <t>position microns blocker to open both</t>
-  </si>
-  <si>
-    <t>position microns blocker to open on slit</t>
-  </si>
-  <si>
     <t>look at graph.</t>
   </si>
   <si>
@@ -253,6 +244,57 @@
   </si>
   <si>
     <t>Precited Min</t>
+  </si>
+  <si>
+    <t>I (volts)</t>
+  </si>
+  <si>
+    <t>Max x</t>
+  </si>
+  <si>
+    <t>1 Open</t>
+  </si>
+  <si>
+    <t>Both open</t>
+  </si>
+  <si>
+    <t>Multimer</t>
+  </si>
+  <si>
+    <t>left side</t>
+  </si>
+  <si>
+    <t>right side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>Double Slit Laser Values</t>
+  </si>
+  <si>
+    <t>Trial 1</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Fringe width single slit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d sin teha = lamda </t>
+  </si>
+  <si>
+    <t>L = .5 cm</t>
+  </si>
+  <si>
+    <t>y = .5 cm * sin -1 (750 nm / 10 um )</t>
+  </si>
+  <si>
+    <t>~ 10 um</t>
   </si>
 </sst>
 </file>
@@ -316,18 +358,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -441,34 +477,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -484,13 +499,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -499,48 +577,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,11 +793,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="46984576"/>
-        <c:axId val="49837568"/>
+        <c:axId val="49112576"/>
+        <c:axId val="49114496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46984576"/>
+        <c:axId val="49112576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,12 +864,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="49837568"/>
+        <c:crossAx val="49114496"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49837568"/>
+        <c:axId val="49114496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +918,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="46984576"/>
+        <c:crossAx val="49112576"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -896,7 +932,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1040,11 +1076,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72730880"/>
-        <c:axId val="72895104"/>
+        <c:axId val="49146880"/>
+        <c:axId val="49816704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72730880"/>
+        <c:axId val="49146880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,12 +1147,12 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72895104"/>
+        <c:crossAx val="49816704"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72895104"/>
+        <c:axId val="49816704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1201,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="72730880"/>
+        <c:crossAx val="49146880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1179,7 +1215,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1538,2083 +1574,2086 @@
   <dimension ref="A1:AB26"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="9.5703125"/>
-    <col min="11" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="9.140625" style="31"/>
+    <col min="2" max="2" width="9.5703125" style="31"/>
+    <col min="3" max="10" width="9.140625" style="31"/>
+    <col min="11" max="1025" width="8.5703125" style="31"/>
+    <col min="1026" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="D1" s="27" t="s">
+      <c r="B1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="Q1" s="27" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="Q1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
     </row>
     <row r="2" spans="1:28">
-      <c r="A2" t="s">
+      <c r="A2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="31">
         <v>485</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="32">
         <v>185</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="32">
         <v>235</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="32">
         <v>285</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="32">
         <v>335</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="32">
         <v>385</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="32">
         <v>435</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="32">
         <v>485</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="32">
         <v>535</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="32">
         <v>585</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="32">
         <v>635</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="32">
         <v>685</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="32">
         <v>185</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="32">
         <v>235</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="32">
         <v>285</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="32">
         <v>335</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="32">
         <v>385</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="32">
         <v>435</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="32">
         <v>485</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="32">
         <v>535</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="32">
         <v>585</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="32">
         <v>635</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="32">
         <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="1" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-    </row>
-    <row r="4" spans="1:28" s="7" customFormat="1">
-      <c r="A4" s="6">
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+    </row>
+    <row r="4" spans="1:28" s="37" customFormat="1">
+      <c r="A4" s="36">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="37">
         <v>92</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="38">
         <v>1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="39">
         <v>6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="39">
         <v>8</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="38">
         <v>29</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="39">
         <v>20</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="39">
         <v>49</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="39">
         <v>102</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="39">
         <v>13</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="39">
         <v>36</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="39">
         <v>28</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="39">
         <v>7</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="39">
         <v>4</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="38">
         <v>1</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="40">
         <v>1.3</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="39">
         <v>1</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="39">
         <v>4</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="39">
         <v>17</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="39">
         <v>27</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="39">
         <v>23</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="39">
         <v>21</v>
       </c>
-      <c r="Y4" s="9">
+      <c r="Y4" s="39">
         <v>32</v>
       </c>
-      <c r="Z4" s="9">
+      <c r="Z4" s="39">
         <v>16</v>
       </c>
-      <c r="AA4" s="9">
+      <c r="AA4" s="39">
         <v>9</v>
       </c>
-      <c r="AB4" s="9">
+      <c r="AB4" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" s="7" customFormat="1">
-      <c r="A5" s="6">
+    <row r="5" spans="1:28" s="37" customFormat="1">
+      <c r="A5" s="36">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="37">
         <v>97</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="38">
         <v>2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="39">
         <v>5</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="39">
         <v>9</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="38">
         <v>28</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="39">
         <v>24</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="39">
         <v>58</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="39">
         <v>105</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="39">
         <v>8</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="39">
         <v>39</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="39">
         <v>26</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="39">
         <v>7</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="39">
         <v>2</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="38">
         <v>2</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="40">
         <v>1.4</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="39">
         <v>2</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="39">
         <v>8</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="39">
         <v>17</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="39">
         <v>22</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="39">
         <v>17</v>
       </c>
-      <c r="X5" s="9">
+      <c r="X5" s="39">
         <v>28</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="39">
         <v>25</v>
       </c>
-      <c r="Z5" s="9">
+      <c r="Z5" s="39">
         <v>22</v>
       </c>
-      <c r="AA5" s="9">
+      <c r="AA5" s="39">
         <v>11</v>
       </c>
-      <c r="AB5" s="9">
+      <c r="AB5" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="7" customFormat="1">
-      <c r="A6" s="6">
+    <row r="6" spans="1:28" s="37" customFormat="1">
+      <c r="A6" s="36">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="37">
         <v>110</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="38">
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="39">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="39">
         <v>9</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="38">
         <v>35</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="39">
         <v>21</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="39">
         <v>54</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="39">
         <v>122</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="39">
         <v>7</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="39">
         <v>43</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="39">
         <v>25</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="39">
         <v>6</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="39">
         <v>3</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="38">
         <v>3</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="40">
         <v>1.6</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="39">
         <v>2</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="39">
         <v>6</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="39">
         <v>18</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="39">
         <v>20</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="39">
         <v>22</v>
       </c>
-      <c r="X6" s="9">
+      <c r="X6" s="39">
         <v>26</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="39">
         <v>21</v>
       </c>
-      <c r="Z6" s="9">
+      <c r="Z6" s="39">
         <v>18</v>
       </c>
-      <c r="AA6" s="9">
+      <c r="AA6" s="39">
         <v>6</v>
       </c>
-      <c r="AB6" s="9">
+      <c r="AB6" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="7" customFormat="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:28" s="37" customFormat="1">
+      <c r="A7" s="36">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="37">
         <v>102</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="38">
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="39">
         <v>2</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="39">
         <v>8</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="38">
         <v>33</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="39">
         <v>30</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="39">
         <v>49</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="39">
         <v>96</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="39">
         <v>11</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="39">
         <v>30</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="39">
         <v>25</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="39">
         <v>5</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="39">
         <v>3</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="38">
         <v>4</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="40">
         <v>1.2</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="39">
         <v>3</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="39">
         <v>2</v>
       </c>
-      <c r="U7" s="9">
+      <c r="U7" s="39">
         <v>13</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="39">
         <v>23</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="39">
         <v>23</v>
       </c>
-      <c r="X7" s="9">
+      <c r="X7" s="39">
         <v>21</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="39">
         <v>18</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="39">
         <v>18</v>
       </c>
-      <c r="AA7" s="9">
+      <c r="AA7" s="39">
         <v>9</v>
       </c>
-      <c r="AB7" s="9">
+      <c r="AB7" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:28" s="7" customFormat="1">
-      <c r="A8" s="6">
+    <row r="8" spans="1:28" s="37" customFormat="1">
+      <c r="A8" s="36">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="37">
         <v>104</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="38">
         <v>5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="39">
         <v>4</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="39">
         <v>8</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="38">
         <v>39</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="39">
         <v>22</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="39">
         <v>48</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="39">
         <v>100</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="39">
         <v>14</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="39">
         <v>27</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="39">
         <v>20</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="39">
         <v>9</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="39">
         <v>4</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="38">
         <v>5</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="40">
         <v>0.8</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="39">
         <v>1</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="39">
         <v>6</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="39">
         <v>21</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="39">
         <v>18</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="39">
         <v>23</v>
       </c>
-      <c r="X8" s="9">
+      <c r="X8" s="39">
         <v>28</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="39">
         <v>27</v>
       </c>
-      <c r="Z8" s="9">
+      <c r="Z8" s="39">
         <v>19</v>
       </c>
-      <c r="AA8" s="9">
+      <c r="AA8" s="39">
         <v>8</v>
       </c>
-      <c r="AB8" s="9">
+      <c r="AB8" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:28" s="7" customFormat="1">
-      <c r="A9" s="6">
+    <row r="9" spans="1:28" s="37" customFormat="1">
+      <c r="A9" s="36">
         <v>6</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="37">
         <v>103</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="38">
         <v>6</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="39">
         <v>6</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="39">
         <v>7</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="38">
         <v>36</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="39">
         <v>23</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="39">
         <v>50</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="39">
         <v>108</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="39">
         <v>14</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="39">
         <v>30</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="39">
         <v>27</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="39">
         <v>7</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="39">
         <v>3</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="38">
         <v>6</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="39">
         <v>0</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="39">
         <v>6</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="39">
         <v>10</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="39">
         <v>18</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="39">
         <v>30</v>
       </c>
-      <c r="X9" s="9">
+      <c r="X9" s="39">
         <v>26</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="39">
         <v>26</v>
       </c>
-      <c r="Z9" s="9">
+      <c r="Z9" s="39">
         <v>18</v>
       </c>
-      <c r="AA9" s="9">
+      <c r="AA9" s="39">
         <v>10</v>
       </c>
-      <c r="AB9" s="9">
+      <c r="AB9" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="7" customFormat="1">
-      <c r="A10" s="6">
+    <row r="10" spans="1:28" s="37" customFormat="1">
+      <c r="A10" s="36">
         <v>7</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="37">
         <v>107</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="38">
         <v>7</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="39">
         <v>6</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="39">
         <v>9</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="38">
         <v>39</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="39">
         <v>28</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="39">
         <v>51</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="39">
         <v>106</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="39">
         <v>12</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="39">
         <v>37</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="39">
         <v>28</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="39">
         <v>6</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="39">
         <v>6</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="38">
         <v>7</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="40">
         <v>1.2</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="39">
         <v>2</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="39">
         <v>6</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="39">
         <v>8</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="39">
         <v>21</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="39">
         <v>25</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="39">
         <v>30</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="39">
         <v>26</v>
       </c>
-      <c r="Z10" s="9">
+      <c r="Z10" s="39">
         <v>17</v>
       </c>
-      <c r="AA10" s="9">
+      <c r="AA10" s="39">
         <v>7</v>
       </c>
-      <c r="AB10" s="9">
+      <c r="AB10" s="39">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="7" customFormat="1">
-      <c r="A11" s="6">
+    <row r="11" spans="1:28" s="37" customFormat="1">
+      <c r="A11" s="36">
         <v>8</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="37">
         <v>102</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="38">
         <v>8</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="39">
         <v>6</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="39">
         <v>5</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="38">
         <v>34</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="39">
         <v>30</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="39">
         <v>57</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="39">
         <v>110</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="39">
         <v>9</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="39">
         <v>33</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="39">
         <v>21</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="39">
         <v>8</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="39">
         <v>3</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="38">
         <v>8</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="40">
         <v>1.3</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="39">
         <v>3</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="39">
         <v>4</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="39">
         <v>13</v>
       </c>
-      <c r="V11" s="9">
+      <c r="V11" s="39">
         <v>24</v>
       </c>
-      <c r="W11" s="9">
+      <c r="W11" s="39">
         <v>27</v>
       </c>
-      <c r="X11" s="9">
+      <c r="X11" s="39">
         <v>39</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="39">
         <v>26</v>
       </c>
-      <c r="Z11" s="9">
+      <c r="Z11" s="39">
         <v>15</v>
       </c>
-      <c r="AA11" s="9">
+      <c r="AA11" s="39">
         <v>7</v>
       </c>
-      <c r="AB11" s="9">
+      <c r="AB11" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" s="7" customFormat="1">
-      <c r="A12" s="6">
+    <row r="12" spans="1:28" s="37" customFormat="1">
+      <c r="A12" s="36">
         <v>9</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="37">
         <v>92</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="38">
         <v>9</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="39">
         <v>9</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="39">
         <v>9</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="38">
         <v>36</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="39">
         <v>17</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="39">
         <v>58</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="39">
         <v>96</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="39">
         <v>12</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="39">
         <v>37</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="39">
         <v>19</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="39">
         <v>11</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="39">
         <v>3</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="38">
         <v>9</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="40">
         <v>1.3</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="39">
         <v>0</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="39">
         <v>4</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="39">
         <v>16</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="39">
         <v>23</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="39">
         <v>28</v>
       </c>
-      <c r="X12" s="9">
+      <c r="X12" s="39">
         <v>26</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="39">
         <v>29</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="Z12" s="39">
         <v>14</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="39">
         <v>12</v>
       </c>
-      <c r="AB12" s="9">
+      <c r="AB12" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="7" customFormat="1">
-      <c r="A13" s="6">
+    <row r="13" spans="1:28" s="37" customFormat="1">
+      <c r="A13" s="36">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="37">
         <v>94</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="38">
         <v>10</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="39">
         <v>8</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="39">
         <v>8</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="38">
         <v>31</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="39">
         <v>22</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="39">
         <v>52</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="39">
         <v>111</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="39">
         <v>9</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="39">
         <v>47</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="39">
         <v>20</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="39">
         <v>7</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="39">
         <v>4</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="38">
         <v>10</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="40">
         <v>1.3</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="39">
         <v>3</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="39">
         <v>6</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="39">
         <v>13</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="39">
         <v>22</v>
       </c>
-      <c r="W13" s="9">
+      <c r="W13" s="39">
         <v>25</v>
       </c>
-      <c r="X13" s="9">
+      <c r="X13" s="39">
         <v>33</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="39">
         <v>24</v>
       </c>
-      <c r="Z13" s="9">
+      <c r="Z13" s="39">
         <v>14</v>
       </c>
-      <c r="AA13" s="9">
+      <c r="AA13" s="39">
         <v>6</v>
       </c>
-      <c r="AB13" s="9">
+      <c r="AB13" s="39">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="7" customFormat="1">
-      <c r="A14" s="6">
+    <row r="14" spans="1:28" s="37" customFormat="1">
+      <c r="A14" s="36">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8">
+      <c r="C14" s="41"/>
+      <c r="D14" s="38">
         <v>11</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="39">
         <v>9</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="39">
         <v>7</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="38">
         <v>31</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="39">
         <v>22</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="39">
         <v>54</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="39">
         <v>122</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="39">
         <v>10</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="39">
         <v>35</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="39">
         <v>25</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="39">
         <v>7</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="39">
         <v>2</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="38">
         <v>11</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="39">
         <v>3</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="39">
         <v>4</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="39">
         <v>10</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="39">
         <v>19</v>
       </c>
-      <c r="W14" s="9">
+      <c r="W14" s="39">
         <v>28</v>
       </c>
-      <c r="X14" s="9">
+      <c r="X14" s="39">
         <v>31</v>
       </c>
-      <c r="Y14" s="9">
+      <c r="Y14" s="39">
         <v>18</v>
       </c>
-      <c r="Z14" s="9">
+      <c r="Z14" s="39">
         <v>15</v>
       </c>
-      <c r="AA14" s="9">
+      <c r="AA14" s="39">
         <v>9</v>
       </c>
-      <c r="AB14" s="9">
+      <c r="AB14" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="7" customFormat="1">
-      <c r="A15" s="6">
+    <row r="15" spans="1:28" s="37" customFormat="1">
+      <c r="A15" s="36">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8">
+      <c r="C15" s="41"/>
+      <c r="D15" s="38">
         <v>12</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="39">
         <v>6</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="39">
         <v>7</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="38">
         <v>36</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="39">
         <v>14</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="39">
         <v>52</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="39">
         <v>106</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="39">
         <v>13</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="39">
         <v>39</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="39">
         <v>18</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="39">
         <v>11</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="39">
         <v>3</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="38">
         <v>12</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="39">
         <v>4</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="39">
         <v>8</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="39">
         <v>13</v>
       </c>
-      <c r="V15" s="9">
+      <c r="V15" s="39">
         <v>23</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="39">
         <v>30</v>
       </c>
-      <c r="X15" s="9">
+      <c r="X15" s="39">
         <v>28</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="39">
         <v>23</v>
       </c>
-      <c r="Z15" s="9">
+      <c r="Z15" s="39">
         <v>18</v>
       </c>
-      <c r="AA15" s="9">
+      <c r="AA15" s="39">
         <v>9</v>
       </c>
-      <c r="AB15" s="9">
+      <c r="AB15" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="7" customFormat="1">
-      <c r="A16" s="6">
+    <row r="16" spans="1:28" s="37" customFormat="1">
+      <c r="A16" s="36">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="8">
+      <c r="C16" s="41"/>
+      <c r="D16" s="38">
         <v>13</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="39">
         <v>7</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="39">
         <v>6</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="38">
         <v>30</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="39">
         <v>22</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="39">
         <v>55</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="39">
         <v>97</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="39">
         <v>13</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="39">
         <v>38</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="39">
         <v>21</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="39">
         <v>5</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="39">
         <v>4</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="38">
         <v>13</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="40">
         <v>1.3</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="39">
         <v>3</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="39">
         <v>6</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="39">
         <v>11</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="39">
         <v>19</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="39">
         <v>25</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="39">
         <v>20</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="39">
         <v>25</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="39">
         <v>14</v>
       </c>
-      <c r="AA16" s="9">
+      <c r="AA16" s="39">
         <v>6</v>
       </c>
-      <c r="AB16" s="9">
+      <c r="AB16" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="7" customFormat="1">
-      <c r="A17" s="6">
+    <row r="17" spans="1:28" s="37" customFormat="1">
+      <c r="A17" s="36">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8">
+      <c r="C17" s="41"/>
+      <c r="D17" s="38">
         <v>14</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="39">
         <v>4</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="39">
         <v>10</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="38">
         <v>29</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="39">
         <v>20</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="39">
         <v>57</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="39">
         <v>107</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="39">
         <v>8</v>
       </c>
-      <c r="L17" s="9">
+      <c r="L17" s="39">
         <v>36</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="39">
         <v>17</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="39">
         <v>7</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="39">
         <v>4</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="38">
         <v>14</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="39">
         <v>1</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="39">
         <v>12</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="39">
         <v>15</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="39">
         <v>22</v>
       </c>
-      <c r="W17" s="9">
+      <c r="W17" s="39">
         <v>23</v>
       </c>
-      <c r="X17" s="9">
+      <c r="X17" s="39">
         <v>33</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="39">
         <v>22</v>
       </c>
-      <c r="Z17" s="9">
+      <c r="Z17" s="39">
         <v>14</v>
       </c>
-      <c r="AA17" s="9">
+      <c r="AA17" s="39">
         <v>8</v>
       </c>
-      <c r="AB17" s="9">
+      <c r="AB17" s="39">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="7" customFormat="1">
-      <c r="A18" s="6">
+    <row r="18" spans="1:28" s="37" customFormat="1">
+      <c r="A18" s="36">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="8">
+      <c r="C18" s="41"/>
+      <c r="D18" s="38">
         <v>15</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="39">
         <v>7</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="39">
         <v>8</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="38">
         <v>41</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="39">
         <v>18</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="39">
         <v>55</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="39">
         <v>103</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="39">
         <v>12</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="39">
         <v>34</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="39">
         <v>21</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="39">
         <v>6</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="39">
         <v>4</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="38">
         <v>15</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R18" s="40">
         <v>1.2</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="39">
         <v>2</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="39">
         <v>6</v>
       </c>
-      <c r="U18" s="9">
+      <c r="U18" s="39">
         <v>16</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="39">
         <v>19</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="39">
         <v>27</v>
       </c>
-      <c r="X18" s="9">
+      <c r="X18" s="39">
         <v>27</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="39">
         <v>24</v>
       </c>
-      <c r="Z18" s="9">
+      <c r="Z18" s="39">
         <v>16</v>
       </c>
-      <c r="AA18" s="9">
+      <c r="AA18" s="39">
         <v>6</v>
       </c>
-      <c r="AB18" s="9">
+      <c r="AB18" s="39">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="7" customFormat="1">
-      <c r="A19" s="6">
+    <row r="19" spans="1:28" s="37" customFormat="1">
+      <c r="A19" s="36">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="8">
+      <c r="C19" s="41"/>
+      <c r="D19" s="38">
         <v>16</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="39">
         <v>4</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="39">
         <v>12</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="38">
         <v>38</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="39">
         <v>27</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="39">
         <v>54</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="39">
         <v>90</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="39">
         <v>10</v>
       </c>
-      <c r="L19" s="9">
+      <c r="L19" s="39">
         <v>38</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="39">
         <v>25</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="39">
         <v>8</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="39">
         <v>3</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="38">
         <v>16</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R19" s="40">
         <v>1.2</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="39">
         <v>1</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="39">
         <v>5</v>
       </c>
-      <c r="U19" s="9">
+      <c r="U19" s="39">
         <v>14</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="39">
         <v>13</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="39">
         <v>30</v>
       </c>
-      <c r="X19" s="9">
+      <c r="X19" s="39">
         <v>23</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="39">
         <v>17</v>
       </c>
-      <c r="Z19" s="9">
+      <c r="Z19" s="39">
         <v>15</v>
       </c>
-      <c r="AA19" s="9">
+      <c r="AA19" s="39">
         <v>11</v>
       </c>
-      <c r="AB19" s="9">
+      <c r="AB19" s="39">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="7" customFormat="1">
-      <c r="A20" s="6">
+    <row r="20" spans="1:28" s="37" customFormat="1">
+      <c r="A20" s="36">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="8">
+      <c r="C20" s="41"/>
+      <c r="D20" s="38">
         <v>17</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="39">
         <v>7</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="39">
         <v>11</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="38">
         <v>37</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="39">
         <v>27</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="39">
         <v>45</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="39">
         <v>114</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="42">
         <v>6</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="39">
         <v>30</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="39">
         <v>31</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="39">
         <v>6</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="39">
         <v>0</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="38">
         <v>17</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="40">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="39">
         <v>2</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="39">
         <v>5</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="39">
         <v>14</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="39">
         <v>28</v>
       </c>
-      <c r="W20" s="9">
+      <c r="W20" s="39">
         <v>27</v>
       </c>
-      <c r="X20" s="12">
+      <c r="X20" s="42">
         <v>25</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="39">
         <v>20</v>
       </c>
-      <c r="Z20" s="9">
+      <c r="Z20" s="39">
         <v>14</v>
       </c>
-      <c r="AA20" s="9">
+      <c r="AA20" s="39">
         <v>6</v>
       </c>
-      <c r="AB20" s="9">
+      <c r="AB20" s="39">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="7" customFormat="1">
-      <c r="A21" s="6">
+    <row r="21" spans="1:28" s="37" customFormat="1">
+      <c r="A21" s="36">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8">
+      <c r="C21" s="41"/>
+      <c r="D21" s="38">
         <v>18</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="39">
         <v>5</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="39">
         <v>10</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="38">
         <v>36</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="39">
         <v>21</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="39">
         <v>45</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="39">
         <v>111</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="42">
         <v>9</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="39">
         <v>36</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="39">
         <v>26</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="39">
         <v>10</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="39">
         <v>2</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="38">
         <v>18</v>
       </c>
-      <c r="R21" s="10">
+      <c r="R21" s="40">
         <v>1.2</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="39">
         <v>1</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="39">
         <v>6</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="39">
         <v>12</v>
       </c>
-      <c r="V21" s="9">
+      <c r="V21" s="39">
         <v>25</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="39">
         <v>27</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="42">
         <v>32</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="39">
         <v>28</v>
       </c>
-      <c r="Z21" s="9">
+      <c r="Z21" s="39">
         <v>14</v>
       </c>
-      <c r="AA21" s="9">
+      <c r="AA21" s="39">
         <v>6</v>
       </c>
-      <c r="AB21" s="9">
+      <c r="AB21" s="39">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="7" customFormat="1">
-      <c r="A22" s="6">
+    <row r="22" spans="1:28" s="37" customFormat="1">
+      <c r="A22" s="36">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="8">
+      <c r="C22" s="41"/>
+      <c r="D22" s="38">
         <v>19</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="39">
         <v>5</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="39">
         <v>7</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="38">
         <v>35</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="39">
         <v>22</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="39">
         <v>52</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="39">
         <v>92</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="42">
         <v>12</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="39">
         <v>32</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="39">
         <v>21</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="39">
         <v>8</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="39">
         <v>5</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="38">
         <v>19</v>
       </c>
-      <c r="R22" s="10">
+      <c r="R22" s="40">
         <v>1.2</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="39">
         <v>3</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="39">
         <v>7</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="39">
         <v>17</v>
       </c>
-      <c r="V22" s="9">
+      <c r="V22" s="39">
         <v>19</v>
       </c>
-      <c r="W22" s="9">
+      <c r="W22" s="39">
         <v>26</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="42">
         <v>19</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="39">
         <v>30</v>
       </c>
-      <c r="Z22" s="9">
+      <c r="Z22" s="39">
         <v>19</v>
       </c>
-      <c r="AA22" s="9">
+      <c r="AA22" s="39">
         <v>9</v>
       </c>
-      <c r="AB22" s="9">
+      <c r="AB22" s="39">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="7" customFormat="1">
-      <c r="A23" s="6">
+    <row r="23" spans="1:28" s="37" customFormat="1">
+      <c r="A23" s="36">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="8">
+      <c r="C23" s="41"/>
+      <c r="D23" s="38">
         <v>20</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="39">
         <v>4</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="39">
         <v>10</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="38">
         <v>39</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="39">
         <v>28</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="39">
         <v>50</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="39">
         <v>100</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="42">
         <v>11</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="39">
         <v>38</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="39">
         <v>25</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="39">
         <v>10</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="39">
         <v>5</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="38">
         <v>20</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="40">
         <v>1.2</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="39">
         <v>3</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="39">
         <v>6</v>
       </c>
-      <c r="U23" s="9">
+      <c r="U23" s="39">
         <v>13</v>
       </c>
-      <c r="V23" s="9">
+      <c r="V23" s="39">
         <v>19</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="39">
         <v>25</v>
       </c>
-      <c r="X23" s="12">
+      <c r="X23" s="42">
         <v>21</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="39">
         <v>17</v>
       </c>
-      <c r="Z23" s="9">
+      <c r="Z23" s="39">
         <v>20</v>
       </c>
-      <c r="AA23" s="9">
+      <c r="AA23" s="39">
         <v>8</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="39">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="37">
         <f>AVERAGE(B4:B13)</f>
         <v>100.3</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="14">
-        <f t="shared" ref="E24:I24" si="0">AVERAGE(E4:E23)</f>
+      <c r="E24" s="39">
+        <f t="shared" ref="E24:J24" si="0">AVERAGE(E4:E23)</f>
         <v>5.8</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="39">
         <f t="shared" si="0"/>
         <v>8.4</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="39">
         <f t="shared" si="0"/>
         <v>34.6</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="39">
         <f t="shared" si="0"/>
         <v>22.9</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="39">
         <f t="shared" si="0"/>
         <v>52.25</v>
       </c>
-      <c r="J24" s="14">
-        <f>AVERAGE(J4:J23)</f>
+      <c r="J24" s="39">
+        <f t="shared" si="0"/>
         <v>104.9</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="39">
         <f>AVERAGE(K4:K19)</f>
         <v>10.9375</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="39">
         <f>AVERAGE(L4:L23)</f>
         <v>35.75</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="39">
         <f>AVERAGE(M4:M23)</f>
         <v>23.45</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="39">
         <f>AVERAGE(N4:N23)</f>
         <v>7.55</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="39">
         <f>AVERAGE(O4:O23)</f>
         <v>3.35</v>
       </c>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="1" t="s">
+      <c r="P24" s="37"/>
+      <c r="Q24" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="R24" s="10">
+      <c r="R24" s="40">
         <f t="shared" ref="R24:AB24" si="1">AVERAGE(R4:R23)</f>
         <v>1.21</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="39">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="39">
         <f t="shared" si="1"/>
         <v>5.85</v>
       </c>
-      <c r="U24" s="9">
+      <c r="U24" s="39">
         <f t="shared" si="1"/>
         <v>14.05</v>
       </c>
-      <c r="V24" s="9">
+      <c r="V24" s="39">
         <f t="shared" si="1"/>
         <v>21.2</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="39">
         <f t="shared" si="1"/>
         <v>25.55</v>
       </c>
-      <c r="X24" s="9">
+      <c r="X24" s="39">
         <f t="shared" si="1"/>
         <v>26.85</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="39">
         <f t="shared" si="1"/>
         <v>23.9</v>
       </c>
-      <c r="Z24" s="9">
+      <c r="Z24" s="39">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="39">
         <f t="shared" si="1"/>
         <v>8.15</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="39">
         <f t="shared" si="1"/>
         <v>2.95</v>
       </c>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="36">
         <f>STDEV(B4:B13)/SQRT(10)</f>
         <v>1.9835434062415946</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="43">
         <f t="shared" ref="E25:J25" si="2">STDEV(E4:E23)</f>
         <v>1.7651599003161762</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="43">
         <f t="shared" si="2"/>
         <v>1.6982963599783716</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="43">
         <f t="shared" si="2"/>
         <v>3.8443396531031198</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="43">
         <f t="shared" si="2"/>
         <v>4.3152117713478333</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="43">
         <f t="shared" si="2"/>
         <v>3.9185792269513624</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="43">
         <f t="shared" si="2"/>
         <v>8.7473304198300177</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="43">
         <f>STDEV(K4:K19)</f>
         <v>2.2647663602823727</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="43">
         <f>STDEV(L4:L23)</f>
         <v>4.7002239588298229</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="43">
         <f>STDEV(M4:M23)</f>
         <v>3.80408367830927</v>
       </c>
-      <c r="N25" s="15">
+      <c r="N25" s="43">
         <f>STDEV(N4:N23)</f>
         <v>1.8202082009311036</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="43">
         <f>STDEV(O4:O23)</f>
         <v>1.3088765773505318</v>
       </c>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="1" t="s">
+      <c r="P25" s="36"/>
+      <c r="Q25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="R25" s="10">
+      <c r="R25" s="40">
         <f t="shared" ref="R25:AB25" si="3">STDEV(R4:R23)</f>
         <v>0.15525869752737009</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="43">
         <f t="shared" si="3"/>
         <v>1.1239029738980326</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T25" s="43">
         <f t="shared" si="3"/>
         <v>2.0332758116683989</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U25" s="43">
         <f t="shared" si="3"/>
         <v>3.1367935354770351</v>
       </c>
-      <c r="V25" s="15">
+      <c r="V25" s="43">
         <f t="shared" si="3"/>
         <v>3.458018903482476</v>
       </c>
-      <c r="W25" s="15">
+      <c r="W25" s="43">
         <f t="shared" si="3"/>
         <v>3.1867323637065561</v>
       </c>
-      <c r="X25" s="15">
+      <c r="X25" s="43">
         <f t="shared" si="3"/>
         <v>5.1938729084829989</v>
       </c>
-      <c r="Y25" s="15">
+      <c r="Y25" s="43">
         <f t="shared" si="3"/>
         <v>4.3757706088245296</v>
       </c>
-      <c r="Z25" s="15">
+      <c r="Z25" s="43">
         <f t="shared" si="3"/>
         <v>2.3951705795753164</v>
       </c>
-      <c r="AA25" s="15">
+      <c r="AA25" s="43">
         <f t="shared" si="3"/>
         <v>1.8994459025837254</v>
       </c>
-      <c r="AB25" s="15">
+      <c r="AB25" s="43">
         <f t="shared" si="3"/>
         <v>1.276302224561664</v>
       </c>
     </row>
     <row r="26" spans="1:28">
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="40">
         <f t="shared" ref="E26:J26" si="4">STDEV(E4:E23)/SQRT(20)</f>
         <v>0.39470175282637221</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="40">
         <f t="shared" si="4"/>
         <v>0.37975061068520921</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="43">
         <f t="shared" si="4"/>
         <v>0.85962047929365359</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="43">
         <f t="shared" si="4"/>
         <v>0.96491068580410344</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="43">
         <f t="shared" si="4"/>
         <v>0.87622095266818223</v>
       </c>
-      <c r="J26" s="15">
+      <c r="J26" s="43">
         <f t="shared" si="4"/>
         <v>1.9559625440391692</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="43">
         <f>STDEV(K4:K19)/SQRT(16)</f>
         <v>0.56619159007059316</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="43">
         <f>STDEV(L4:L23)/SQRT(20)</f>
         <v>1.0510020281416657</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="43">
         <f>STDEV(M4:M23)/SQRT(20)</f>
         <v>0.85061896967969697</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="40">
         <f>STDEV(N4:N23)/SQRT(20)</f>
         <v>0.40701092704845432</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="40">
         <f>STDEV(O4:O23)/SQRT(20)</f>
         <v>0.29267370011130506</v>
       </c>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="R26" s="16">
+      <c r="R26" s="44">
         <f t="shared" ref="R26:W26" si="5">STDEV(R4:R23)/SQRT(20)</f>
         <v>3.4716900176927801E-2</v>
       </c>
-      <c r="S26" s="10">
+      <c r="S26" s="40">
         <f t="shared" si="5"/>
         <v>0.25131234497501725</v>
       </c>
-      <c r="T26" s="10">
+      <c r="T26" s="40">
         <f t="shared" si="5"/>
         <v>0.45465429318966</v>
       </c>
-      <c r="U26" s="15">
+      <c r="U26" s="43">
         <f t="shared" si="5"/>
         <v>0.70140835767085485</v>
       </c>
-      <c r="V26" s="15">
+      <c r="V26" s="43">
         <f t="shared" si="5"/>
         <v>0.77323653356661004</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W26" s="43">
         <f t="shared" si="5"/>
         <v>0.71257501913464427</v>
       </c>
-      <c r="X26" s="15">
+      <c r="X26" s="43">
         <f>STDEV(X4:X19)/SQRT(16)</f>
         <v>1.2583057392117916</v>
       </c>
-      <c r="Y26" s="15">
+      <c r="Y26" s="43">
         <f>STDEV(Y4:Y23)/SQRT(20)</f>
         <v>0.9784520535277289</v>
       </c>
-      <c r="Z26" s="15">
+      <c r="Z26" s="43">
         <f>STDEV(Z4:Z23)/SQRT(20)</f>
         <v>0.53557642336379763</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AA26" s="40">
         <f>STDEV(AA4:AA23)/SQRT(20)</f>
         <v>0.42472901577606531</v>
       </c>
-      <c r="AB26" s="10">
+      <c r="AB26" s="40">
         <f>STDEV(AB4:AB23)/SQRT(20)</f>
         <v>0.28538985339540823</v>
       </c>
@@ -3642,1149 +3681,1149 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="F2" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="F2" s="50" t="s">
+      <c r="D3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="51" t="s">
+      <c r="F3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="G3" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>100</v>
+      </c>
+      <c r="D4" s="24">
+        <v>4.9474299999999999E-2</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H4" s="24">
+        <v>48</v>
+      </c>
+      <c r="J4" s="24">
+        <v>50</v>
+      </c>
+      <c r="K4" s="24">
+        <v>3.3142983084356002E-2</v>
+      </c>
+      <c r="M4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="24">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25">
+        <v>0.214</v>
+      </c>
+      <c r="C5" s="24">
+        <v>150</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.22292000000000001</v>
+      </c>
+      <c r="F5" s="24">
+        <v>2</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H5" s="24">
+        <v>82</v>
+      </c>
+      <c r="J5" s="24">
+        <v>60</v>
+      </c>
+      <c r="K5" s="24">
+        <v>7.45484040244088E-3</v>
+      </c>
+      <c r="M5" s="28">
+        <v>450</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="C6" s="24">
+        <v>200</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0.513679</v>
+      </c>
+      <c r="F6" s="24">
+        <v>3</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H6" s="24">
+        <v>179.1</v>
+      </c>
+      <c r="J6" s="24">
+        <v>70</v>
+      </c>
+      <c r="K6" s="24">
+        <v>-5.1754964038234E-3</v>
+      </c>
+      <c r="M6" s="29">
+        <v>7</v>
+      </c>
+      <c r="N6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="51" t="s">
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="C7" s="24">
+        <v>250</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0.89203500000000002</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.128</v>
+      </c>
+      <c r="H7" s="24">
+        <v>213.2</v>
+      </c>
+      <c r="J7" s="24">
+        <v>80</v>
+      </c>
+      <c r="K7" s="24">
+        <v>6.1334775619396901E-3</v>
+      </c>
+      <c r="M7" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="51" t="s">
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1.175</v>
+      </c>
+      <c r="C8" s="24">
+        <v>300</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1.2410099999999999</v>
+      </c>
+      <c r="F8" s="24">
+        <v>5</v>
+      </c>
+      <c r="G8" s="26">
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="H8" s="24">
+        <v>266</v>
+      </c>
+      <c r="J8" s="24">
+        <v>90</v>
+      </c>
+      <c r="K8" s="24">
+        <v>5.0359622400747803E-2</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="24">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25">
+        <v>1.42</v>
+      </c>
+      <c r="C9" s="24">
+        <v>350</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1.4524300000000001</v>
+      </c>
+      <c r="F9" s="24">
+        <v>6</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.115</v>
+      </c>
+      <c r="H9" s="24">
+        <v>306</v>
+      </c>
+      <c r="J9" s="24">
+        <v>100</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0.122411673397923</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="24">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25">
+        <v>1.48</v>
+      </c>
+      <c r="C10" s="24">
+        <v>400</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1.4715</v>
+      </c>
+      <c r="F10" s="24">
+        <v>7</v>
+      </c>
+      <c r="G10" s="26">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="H10" s="24">
+        <v>357</v>
+      </c>
+      <c r="J10" s="24">
+        <v>110</v>
+      </c>
+      <c r="K10" s="24">
+        <v>0.210892542454161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="24">
+        <v>8</v>
+      </c>
+      <c r="B11" s="25">
+        <v>1.337</v>
+      </c>
+      <c r="C11" s="24">
+        <v>450</v>
+      </c>
+      <c r="D11" s="24">
+        <v>1.3055099999999999</v>
+      </c>
+      <c r="F11" s="24">
+        <v>8</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="24">
+        <v>399.5</v>
+      </c>
+      <c r="J11" s="24">
+        <v>120</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0.30437539702023197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="24">
+        <v>9</v>
+      </c>
+      <c r="B12" s="25">
+        <v>1.034</v>
+      </c>
+      <c r="C12" s="24">
+        <v>500</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1.0105599999999999</v>
+      </c>
+      <c r="F12" s="24">
+        <v>9</v>
+      </c>
+      <c r="G12" s="26">
+        <v>4.8440000000000003</v>
+      </c>
+      <c r="H12" s="24">
+        <v>447.8</v>
+      </c>
+      <c r="J12" s="24">
+        <v>130</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.39143340454690601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="24">
+        <v>10</v>
+      </c>
+      <c r="B13" s="25">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C13" s="24">
+        <v>550</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.66724399999999995</v>
+      </c>
+      <c r="F13" s="24">
+        <v>10</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.153</v>
+      </c>
+      <c r="H13" s="24">
+        <v>493</v>
+      </c>
+      <c r="J13" s="24">
+        <v>140</v>
+      </c>
+      <c r="K13" s="24">
+        <v>0.46063973248495099</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="24">
+        <v>11</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C14" s="24">
+        <v>600</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.354547</v>
+      </c>
+      <c r="F14" s="24">
+        <v>11</v>
+      </c>
+      <c r="G14" s="26">
+        <v>3.89</v>
+      </c>
+      <c r="H14" s="24">
+        <v>537</v>
+      </c>
+      <c r="J14" s="24">
+        <v>150</v>
+      </c>
+      <c r="K14" s="24">
+        <v>0.50056754828513705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="24">
+        <v>12</v>
+      </c>
+      <c r="B15" s="25">
+        <v>0.111</v>
+      </c>
+      <c r="C15" s="24">
+        <v>650</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.128526</v>
+      </c>
+      <c r="F15" s="24">
+        <v>12</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H15" s="24">
+        <v>586.4</v>
+      </c>
+      <c r="J15" s="24">
+        <v>160</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0.49979001939823298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="24">
+        <v>13</v>
+      </c>
+      <c r="B16" s="25">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C16" s="24">
+        <v>700</v>
+      </c>
+      <c r="D16" s="24">
+        <v>1.02237E-2</v>
+      </c>
+      <c r="F16" s="24">
+        <v>13</v>
+      </c>
+      <c r="G16" s="26">
+        <v>1.853</v>
+      </c>
+      <c r="H16" s="24">
+        <v>627.29999999999995</v>
+      </c>
+      <c r="J16" s="24">
+        <v>170</v>
+      </c>
+      <c r="K16" s="24">
+        <v>0.44688031327500899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="24">
+        <v>14</v>
+      </c>
+      <c r="B17" s="25">
+        <v>0.01</v>
+      </c>
+      <c r="C17" s="24">
+        <v>750</v>
+      </c>
+      <c r="D17" s="24">
+        <v>-1.50514E-2</v>
+      </c>
+      <c r="F17" s="24">
+        <v>14</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="H17" s="24">
+        <v>681</v>
+      </c>
+      <c r="J17" s="24">
+        <v>180</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0.33042608398317402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="24">
+        <v>15</v>
+      </c>
+      <c r="B18" s="25">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C18" s="24">
+        <v>800</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1.27736E-2</v>
+      </c>
+      <c r="F18" s="24">
+        <v>15</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H18" s="24">
+        <v>709.2</v>
+      </c>
+      <c r="J18" s="24">
+        <v>190</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.164691729176315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="24">
+        <v>16</v>
+      </c>
+      <c r="B19" s="25">
+        <v>0.03</v>
+      </c>
+      <c r="C19" s="24">
+        <v>850</v>
+      </c>
+      <c r="D19" s="24">
+        <v>4.7796100000000001E-2</v>
+      </c>
+      <c r="F19" s="24">
+        <v>16</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H19" s="24">
+        <v>811.4</v>
+      </c>
+      <c r="J19" s="24">
+        <v>200</v>
+      </c>
+      <c r="K19" s="24">
+        <v>4.2506941991820001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="24">
+        <v>17</v>
+      </c>
+      <c r="B20" s="25">
+        <v>0.04</v>
+      </c>
+      <c r="C20" s="24">
+        <v>800</v>
+      </c>
+      <c r="D20" s="24">
+        <v>6.1440500000000002E-2</v>
+      </c>
+      <c r="F20" s="24">
+        <v>17</v>
+      </c>
+      <c r="G20" s="26">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H20" s="24">
+        <v>839.5</v>
+      </c>
+      <c r="J20" s="24">
+        <v>210</v>
+      </c>
+      <c r="K20" s="24">
+        <v>7.1676305023922499E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="24">
+        <v>18</v>
+      </c>
+      <c r="B21" s="25">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C21" s="24">
+        <v>950</v>
+      </c>
+      <c r="D21" s="24">
+        <v>6.2783099999999994E-2</v>
+      </c>
+      <c r="J21" s="24">
+        <v>220</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.34661164707645498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="24">
+        <v>19</v>
+      </c>
+      <c r="B22" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.106598</v>
+      </c>
+      <c r="J22" s="24">
+        <v>230</v>
+      </c>
+      <c r="K22" s="24">
+        <v>0.81333319399491799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="J23" s="24">
+        <v>240</v>
+      </c>
+      <c r="K23" s="24">
+        <v>1.3254803384876399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="27">
+        <v>383</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="24">
+        <v>250</v>
+      </c>
+      <c r="K24" s="24">
+        <v>1.7352967700387201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="27">
+        <v>1.48</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J25" s="24">
+        <v>260</v>
+      </c>
+      <c r="K25" s="24">
+        <v>1.8950261781322399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="J26" s="24">
+        <v>270</v>
+      </c>
+      <c r="K26" s="24">
+        <v>1.6618120220413699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="B27" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="27">
+        <v>750</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="24">
+        <v>280</v>
+      </c>
+      <c r="K27" s="24">
+        <v>1.08327631158912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="B28" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="51">
-        <v>1</v>
-      </c>
-      <c r="B4" s="52">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="C4" s="51">
-        <v>100</v>
-      </c>
-      <c r="D4" s="51">
-        <v>4.9474299999999999E-2</v>
-      </c>
-      <c r="F4" s="51">
-        <v>1</v>
-      </c>
-      <c r="G4" s="53">
-        <v>3.9E-2</v>
-      </c>
-      <c r="H4" s="51">
-        <v>48</v>
-      </c>
-      <c r="J4" s="51">
-        <v>50</v>
-      </c>
-      <c r="K4" s="51">
-        <v>3.3142983084356002E-2</v>
-      </c>
-      <c r="M4" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="N4" s="54"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="51">
-        <v>2</v>
-      </c>
-      <c r="B5" s="52">
-        <v>0.214</v>
-      </c>
-      <c r="C5" s="51">
-        <v>150</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0.22292000000000001</v>
-      </c>
-      <c r="F5" s="51">
-        <v>2</v>
-      </c>
-      <c r="G5" s="53">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H5" s="51">
-        <v>82</v>
-      </c>
-      <c r="J5" s="51">
-        <v>60</v>
-      </c>
-      <c r="K5" s="51">
-        <v>7.45484040244088E-3</v>
-      </c>
-      <c r="M5" s="55">
+      <c r="J28" s="24">
+        <v>290</v>
+      </c>
+      <c r="K28" s="24">
+        <v>0.45447943094620702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="J29" s="24">
+        <v>300</v>
+      </c>
+      <c r="K29" s="24">
+        <v>8.7018487321469704E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="J30" s="24">
+        <v>310</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.285519967249384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="J31" s="24">
+        <v>320</v>
+      </c>
+      <c r="K31" s="24">
+        <v>1.08362747854942</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="J32" s="24">
+        <v>330</v>
+      </c>
+      <c r="K32" s="24">
+        <v>2.1629682849868002</v>
+      </c>
+    </row>
+    <row r="33" spans="10:11">
+      <c r="J33" s="24">
+        <v>340</v>
+      </c>
+      <c r="K33" s="24">
+        <v>3.18164380555086</v>
+      </c>
+    </row>
+    <row r="34" spans="10:11">
+      <c r="J34" s="24">
+        <v>350</v>
+      </c>
+      <c r="K34" s="24">
+        <v>3.7977554592309199</v>
+      </c>
+    </row>
+    <row r="35" spans="10:11">
+      <c r="J35" s="24">
+        <v>360</v>
+      </c>
+      <c r="K35" s="24">
+        <v>3.6732226018500498</v>
+      </c>
+    </row>
+    <row r="36" spans="10:11">
+      <c r="J36" s="24">
+        <v>370</v>
+      </c>
+      <c r="K36" s="24">
+        <v>2.7653597761073598</v>
+      </c>
+    </row>
+    <row r="37" spans="10:11">
+      <c r="J37" s="24">
+        <v>380</v>
+      </c>
+      <c r="K37" s="24">
+        <v>1.5321968701917701</v>
+      </c>
+    </row>
+    <row r="38" spans="10:11">
+      <c r="J38" s="24">
+        <v>390</v>
+      </c>
+      <c r="K38" s="24">
+        <v>0.48026571058731299</v>
+      </c>
+    </row>
+    <row r="39" spans="10:11">
+      <c r="J39" s="24">
+        <v>400</v>
+      </c>
+      <c r="K39" s="24">
+        <v>0.116077205096975</v>
+      </c>
+    </row>
+    <row r="40" spans="10:11">
+      <c r="J40" s="24">
+        <v>410</v>
+      </c>
+      <c r="K40" s="24">
+        <v>0.75249803122881997</v>
+      </c>
+    </row>
+    <row r="41" spans="10:11">
+      <c r="J41" s="24">
+        <v>420</v>
+      </c>
+      <c r="K41" s="24">
+        <v>2.03544455921064</v>
+      </c>
+    </row>
+    <row r="42" spans="10:11">
+      <c r="J42" s="24">
+        <v>430</v>
+      </c>
+      <c r="K42" s="24">
+        <v>3.4673519260852901</v>
+      </c>
+    </row>
+    <row r="43" spans="10:11">
+      <c r="J43" s="24">
+        <v>440</v>
+      </c>
+      <c r="K43" s="24">
+        <v>4.5506552688956301</v>
+      </c>
+    </row>
+    <row r="44" spans="10:11">
+      <c r="J44" s="24">
         <v>450</v>
       </c>
-      <c r="N5" s="54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="51">
-        <v>3</v>
-      </c>
-      <c r="B6" s="52">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="C6" s="51">
-        <v>200</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0.513679</v>
-      </c>
-      <c r="F6" s="51">
-        <v>3</v>
-      </c>
-      <c r="G6" s="53">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="H6" s="51">
-        <v>179.1</v>
-      </c>
-      <c r="J6" s="51">
-        <v>70</v>
-      </c>
-      <c r="K6" s="51">
-        <v>-5.1754964038234E-3</v>
-      </c>
-      <c r="M6" s="56">
-        <v>7</v>
-      </c>
-      <c r="N6" s="54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="51">
-        <v>4</v>
-      </c>
-      <c r="B7" s="52">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="C7" s="51">
-        <v>250</v>
-      </c>
-      <c r="D7" s="51">
-        <v>0.89203500000000002</v>
-      </c>
-      <c r="F7" s="51">
-        <v>4</v>
-      </c>
-      <c r="G7" s="53">
-        <v>0.128</v>
-      </c>
-      <c r="H7" s="51">
-        <v>213.2</v>
-      </c>
-      <c r="J7" s="51">
-        <v>80</v>
-      </c>
-      <c r="K7" s="51">
-        <v>6.1334775619396901E-3</v>
-      </c>
-      <c r="M7" s="51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="51">
-        <v>5</v>
-      </c>
-      <c r="B8" s="52">
-        <v>1.175</v>
-      </c>
-      <c r="C8" s="51">
-        <v>300</v>
-      </c>
-      <c r="D8" s="51">
-        <v>1.2410099999999999</v>
-      </c>
-      <c r="F8" s="51">
-        <v>5</v>
-      </c>
-      <c r="G8" s="53">
-        <v>1.8140000000000001</v>
-      </c>
-      <c r="H8" s="51">
-        <v>266</v>
-      </c>
-      <c r="J8" s="51">
-        <v>90</v>
-      </c>
-      <c r="K8" s="51">
-        <v>5.0359622400747803E-2</v>
-      </c>
-      <c r="M8" s="51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="51">
-        <v>6</v>
-      </c>
-      <c r="B9" s="52">
-        <v>1.42</v>
-      </c>
-      <c r="C9" s="51">
-        <v>350</v>
-      </c>
-      <c r="D9" s="51">
-        <v>1.4524300000000001</v>
-      </c>
-      <c r="F9" s="51">
-        <v>6</v>
-      </c>
-      <c r="G9" s="53">
-        <v>0.115</v>
-      </c>
-      <c r="H9" s="51">
-        <v>306</v>
-      </c>
-      <c r="J9" s="51">
-        <v>100</v>
-      </c>
-      <c r="K9" s="51">
-        <v>0.122411673397923</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="51">
-        <v>7</v>
-      </c>
-      <c r="B10" s="52">
-        <v>1.48</v>
-      </c>
-      <c r="C10" s="51">
-        <v>400</v>
-      </c>
-      <c r="D10" s="51">
-        <v>1.4715</v>
-      </c>
-      <c r="F10" s="51">
-        <v>7</v>
-      </c>
-      <c r="G10" s="53">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="H10" s="51">
-        <v>357</v>
-      </c>
-      <c r="J10" s="51">
-        <v>110</v>
-      </c>
-      <c r="K10" s="51">
-        <v>0.210892542454161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="51">
-        <v>8</v>
-      </c>
-      <c r="B11" s="52">
-        <v>1.337</v>
-      </c>
-      <c r="C11" s="51">
-        <v>450</v>
-      </c>
-      <c r="D11" s="51">
-        <v>1.3055099999999999</v>
-      </c>
-      <c r="F11" s="51">
-        <v>8</v>
-      </c>
-      <c r="G11" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="51">
-        <v>399.5</v>
-      </c>
-      <c r="J11" s="51">
-        <v>120</v>
-      </c>
-      <c r="K11" s="51">
-        <v>0.30437539702023197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="51">
-        <v>9</v>
-      </c>
-      <c r="B12" s="52">
-        <v>1.034</v>
-      </c>
-      <c r="C12" s="51">
+      <c r="K44" s="24">
+        <v>4.7896236144614397</v>
+      </c>
+    </row>
+    <row r="45" spans="10:11">
+      <c r="J45" s="24">
+        <v>460</v>
+      </c>
+      <c r="K45" s="24">
+        <v>3.9939313286620601</v>
+      </c>
+    </row>
+    <row r="46" spans="10:11">
+      <c r="J46" s="24">
+        <v>470</v>
+      </c>
+      <c r="K46" s="24">
+        <v>2.6176535372930698</v>
+      </c>
+    </row>
+    <row r="47" spans="10:11">
+      <c r="J47" s="24">
+        <v>480</v>
+      </c>
+      <c r="K47" s="24">
+        <v>1.1965967768777701</v>
+      </c>
+    </row>
+    <row r="48" spans="10:11">
+      <c r="J48" s="24">
+        <v>490</v>
+      </c>
+      <c r="K48" s="24">
+        <v>0.26656758393945301</v>
+      </c>
+    </row>
+    <row r="49" spans="10:11">
+      <c r="J49" s="24">
         <v>500</v>
       </c>
-      <c r="D12" s="51">
-        <v>1.0105599999999999</v>
-      </c>
-      <c r="F12" s="51">
-        <v>9</v>
-      </c>
-      <c r="G12" s="53">
-        <v>4.8440000000000003</v>
-      </c>
-      <c r="H12" s="51">
-        <v>447.8</v>
-      </c>
-      <c r="J12" s="51">
-        <v>130</v>
-      </c>
-      <c r="K12" s="51">
-        <v>0.39143340454690601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="51">
-        <v>10</v>
-      </c>
-      <c r="B13" s="52">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="C13" s="51">
+      <c r="K49" s="24">
+        <v>0.30450307184172998</v>
+      </c>
+    </row>
+    <row r="50" spans="10:11">
+      <c r="J50" s="24">
+        <v>510</v>
+      </c>
+      <c r="K50" s="24">
+        <v>1.1795950845356999</v>
+      </c>
+    </row>
+    <row r="51" spans="10:11">
+      <c r="J51" s="24">
+        <v>520</v>
+      </c>
+      <c r="K51" s="24">
+        <v>2.4024983669036302</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11">
+      <c r="J52" s="24">
+        <v>530</v>
+      </c>
+      <c r="K52" s="24">
+        <v>3.4792336276023899</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11">
+      <c r="J53" s="24">
+        <v>540</v>
+      </c>
+      <c r="K53" s="24">
+        <v>3.9196257150613198</v>
+      </c>
+    </row>
+    <row r="54" spans="10:11">
+      <c r="J54" s="24">
         <v>550</v>
       </c>
-      <c r="D13" s="51">
-        <v>0.66724399999999995</v>
-      </c>
-      <c r="F13" s="51">
-        <v>10</v>
-      </c>
-      <c r="G13" s="53">
-        <v>0.153</v>
-      </c>
-      <c r="H13" s="51">
-        <v>493</v>
-      </c>
-      <c r="J13" s="51">
-        <v>140</v>
-      </c>
-      <c r="K13" s="51">
-        <v>0.46063973248495099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="51">
-        <v>11</v>
-      </c>
-      <c r="B14" s="52">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="C14" s="51">
+      <c r="K54" s="24">
+        <v>3.5278271808445201</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11">
+      <c r="J55" s="24">
+        <v>560</v>
+      </c>
+      <c r="K55" s="24">
+        <v>2.60689646296911</v>
+      </c>
+    </row>
+    <row r="56" spans="10:11">
+      <c r="J56" s="24">
+        <v>570</v>
+      </c>
+      <c r="K56" s="24">
+        <v>1.50821866396884</v>
+      </c>
+    </row>
+    <row r="57" spans="10:11">
+      <c r="J57" s="24">
+        <v>580</v>
+      </c>
+      <c r="K57" s="24">
+        <v>0.58317888637746795</v>
+      </c>
+    </row>
+    <row r="58" spans="10:11">
+      <c r="J58" s="24">
+        <v>590</v>
+      </c>
+      <c r="K58" s="24">
+        <v>0.178119742525332</v>
+      </c>
+    </row>
+    <row r="59" spans="10:11">
+      <c r="J59" s="24">
         <v>600</v>
       </c>
-      <c r="D14" s="51">
-        <v>0.354547</v>
-      </c>
-      <c r="F14" s="51">
-        <v>11</v>
-      </c>
-      <c r="G14" s="53">
-        <v>3.89</v>
-      </c>
-      <c r="H14" s="51">
-        <v>537</v>
-      </c>
-      <c r="J14" s="51">
-        <v>150</v>
-      </c>
-      <c r="K14" s="51">
-        <v>0.50056754828513705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="51">
-        <v>12</v>
-      </c>
-      <c r="B15" s="52">
-        <v>0.111</v>
-      </c>
-      <c r="C15" s="51">
+      <c r="K59" s="24">
+        <v>0.38768818833507401</v>
+      </c>
+    </row>
+    <row r="60" spans="10:11">
+      <c r="J60" s="24">
+        <v>610</v>
+      </c>
+      <c r="K60" s="24">
+        <v>0.94313295227270499</v>
+      </c>
+    </row>
+    <row r="61" spans="10:11">
+      <c r="J61" s="24">
+        <v>620</v>
+      </c>
+      <c r="K61" s="24">
+        <v>1.54737074651738</v>
+      </c>
+    </row>
+    <row r="62" spans="10:11">
+      <c r="J62" s="24">
+        <v>630</v>
+      </c>
+      <c r="K62" s="24">
+        <v>1.90475724735677</v>
+      </c>
+    </row>
+    <row r="63" spans="10:11">
+      <c r="J63" s="24">
+        <v>640</v>
+      </c>
+      <c r="K63" s="24">
+        <v>1.86364330941918</v>
+      </c>
+    </row>
+    <row r="64" spans="10:11">
+      <c r="J64" s="24">
         <v>650</v>
       </c>
-      <c r="D15" s="51">
-        <v>0.128526</v>
-      </c>
-      <c r="F15" s="51">
-        <v>12</v>
-      </c>
-      <c r="G15" s="53">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="H15" s="51">
-        <v>586.4</v>
-      </c>
-      <c r="J15" s="51">
-        <v>160</v>
-      </c>
-      <c r="K15" s="51">
-        <v>0.49979001939823298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="51">
-        <v>13</v>
-      </c>
-      <c r="B16" s="52">
-        <v>1.9E-2</v>
-      </c>
-      <c r="C16" s="51">
+      <c r="K64" s="24">
+        <v>1.53714750183782</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65" s="24">
+        <v>660</v>
+      </c>
+      <c r="K65" s="24">
+        <v>1.0668282403443401</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66" s="24">
+        <v>670</v>
+      </c>
+      <c r="K66" s="24">
+        <v>0.59424394067044495</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67" s="24">
+        <v>680</v>
+      </c>
+      <c r="K67" s="24">
+        <v>0.26095301854779401</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68" s="24">
+        <v>690</v>
+      </c>
+      <c r="K68" s="24">
+        <v>0.17564807300502999</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69" s="24">
         <v>700</v>
       </c>
-      <c r="D16" s="51">
-        <v>1.02237E-2</v>
-      </c>
-      <c r="F16" s="51">
-        <v>13</v>
-      </c>
-      <c r="G16" s="53">
-        <v>1.853</v>
-      </c>
-      <c r="H16" s="51">
-        <v>627.29999999999995</v>
-      </c>
-      <c r="J16" s="51">
-        <v>170</v>
-      </c>
-      <c r="K16" s="51">
-        <v>0.44688031327500899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="51">
-        <v>14</v>
-      </c>
-      <c r="B17" s="52">
-        <v>0.01</v>
-      </c>
-      <c r="C17" s="51">
+      <c r="K69" s="24">
+        <v>0.269257758955459</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70" s="24">
+        <v>710</v>
+      </c>
+      <c r="K70" s="24">
+        <v>0.412896917534885</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71" s="24">
+        <v>720</v>
+      </c>
+      <c r="K71" s="24">
+        <v>0.50684400137112795</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72" s="24">
+        <v>730</v>
+      </c>
+      <c r="K72" s="24">
+        <v>0.54341955886479298</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" s="24">
+        <v>740</v>
+      </c>
+      <c r="K73" s="24">
+        <v>0.53302882576335398</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" s="24">
         <v>750</v>
       </c>
-      <c r="D17" s="51">
-        <v>-1.50514E-2</v>
-      </c>
-      <c r="F17" s="51">
-        <v>14</v>
-      </c>
-      <c r="G17" s="53">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="H17" s="51">
-        <v>681</v>
-      </c>
-      <c r="J17" s="51">
-        <v>180</v>
-      </c>
-      <c r="K17" s="51">
-        <v>0.33042608398317402</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="51">
-        <v>15</v>
-      </c>
-      <c r="B18" s="52">
-        <v>2.4E-2</v>
-      </c>
-      <c r="C18" s="51">
+      <c r="K74" s="24">
+        <v>0.48607703781428502</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75" s="24">
+        <v>760</v>
+      </c>
+      <c r="K75" s="24">
+        <v>0.41296943076505899</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76" s="24">
+        <v>770</v>
+      </c>
+      <c r="K76" s="24">
+        <v>0.32411124036314998</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77" s="24">
+        <v>780</v>
+      </c>
+      <c r="K77" s="24">
+        <v>0.229907702356032</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78" s="24">
+        <v>790</v>
+      </c>
+      <c r="K78" s="24">
+        <v>0.14076405249117899</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79" s="24">
         <v>800</v>
       </c>
-      <c r="D18" s="51">
-        <v>1.27736E-2</v>
-      </c>
-      <c r="F18" s="51">
-        <v>15</v>
-      </c>
-      <c r="G18" s="53">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="H18" s="51">
-        <v>709.2</v>
-      </c>
-      <c r="J18" s="51">
-        <v>190</v>
-      </c>
-      <c r="K18" s="51">
-        <v>0.164691729176315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="51">
-        <v>16</v>
-      </c>
-      <c r="B19" s="52">
-        <v>0.03</v>
-      </c>
-      <c r="C19" s="51">
+      <c r="K79" s="24">
+        <v>6.7085526516063906E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80" s="24">
+        <v>810</v>
+      </c>
+      <c r="K80" s="24">
+        <v>1.92773601781609E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81" s="24">
+        <v>820</v>
+      </c>
+      <c r="K81" s="24">
+        <v>5.2182570569509999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82" s="24">
+        <v>830</v>
+      </c>
+      <c r="K82" s="24">
+        <v>1.73326102595323E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83" s="24">
+        <v>840</v>
+      </c>
+      <c r="K83" s="24">
+        <v>4.2203444590179502E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84" s="24">
         <v>850</v>
       </c>
-      <c r="D19" s="51">
-        <v>4.7796100000000001E-2</v>
-      </c>
-      <c r="F19" s="51">
-        <v>16</v>
-      </c>
-      <c r="G19" s="53">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H19" s="51">
-        <v>811.4</v>
-      </c>
-      <c r="J19" s="51">
-        <v>200</v>
-      </c>
-      <c r="K19" s="51">
-        <v>4.2506941991820001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="51">
-        <v>17</v>
-      </c>
-      <c r="B20" s="52">
-        <v>0.04</v>
-      </c>
-      <c r="C20" s="51">
-        <v>800</v>
-      </c>
-      <c r="D20" s="51">
-        <v>6.1440500000000002E-2</v>
-      </c>
-      <c r="F20" s="51">
-        <v>17</v>
-      </c>
-      <c r="G20" s="53">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="H20" s="51">
-        <v>839.5</v>
-      </c>
-      <c r="J20" s="51">
-        <v>210</v>
-      </c>
-      <c r="K20" s="51">
-        <v>7.1676305023922499E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="51">
-        <v>18</v>
-      </c>
-      <c r="B21" s="52">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="C21" s="51">
-        <v>950</v>
-      </c>
-      <c r="D21" s="51">
-        <v>6.2783099999999994E-2</v>
-      </c>
-      <c r="J21" s="51">
-        <v>220</v>
-      </c>
-      <c r="K21" s="51">
-        <v>0.34661164707645498</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="51">
-        <v>19</v>
-      </c>
-      <c r="B22" s="52">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="51">
-        <v>1000</v>
-      </c>
-      <c r="D22" s="51">
-        <v>0.106598</v>
-      </c>
-      <c r="J22" s="51">
-        <v>230</v>
-      </c>
-      <c r="K22" s="51">
-        <v>0.81333319399491799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="54"/>
-      <c r="C23" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="J23" s="51">
-        <v>240</v>
-      </c>
-      <c r="K23" s="51">
-        <v>1.3254803384876399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="54">
-        <v>383</v>
-      </c>
-      <c r="D24" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="51">
-        <v>250</v>
-      </c>
-      <c r="K24" s="51">
-        <v>1.7352967700387201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="54">
-        <v>1.48</v>
-      </c>
-      <c r="D25" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J25" s="51">
-        <v>260</v>
-      </c>
-      <c r="K25" s="51">
-        <v>1.8950261781322399</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="54"/>
-      <c r="C26" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="J26" s="51">
-        <v>270</v>
-      </c>
-      <c r="K26" s="51">
-        <v>1.6618120220413699</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="B27" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="54">
-        <v>750</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="51">
-        <v>280</v>
-      </c>
-      <c r="K27" s="51">
-        <v>1.08327631158912</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="B28" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="54">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="D28" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="51">
-        <v>290</v>
-      </c>
-      <c r="K28" s="51">
-        <v>0.45447943094620702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="J29" s="51">
-        <v>300</v>
-      </c>
-      <c r="K29" s="51">
-        <v>8.7018487321469704E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="J30" s="51">
-        <v>310</v>
-      </c>
-      <c r="K30" s="51">
-        <v>0.285519967249384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="J31" s="51">
-        <v>320</v>
-      </c>
-      <c r="K31" s="51">
-        <v>1.08362747854942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="J32" s="51">
-        <v>330</v>
-      </c>
-      <c r="K32" s="51">
-        <v>2.1629682849868002</v>
-      </c>
-    </row>
-    <row r="33" spans="10:11">
-      <c r="J33" s="51">
-        <v>340</v>
-      </c>
-      <c r="K33" s="51">
-        <v>3.18164380555086</v>
-      </c>
-    </row>
-    <row r="34" spans="10:11">
-      <c r="J34" s="51">
-        <v>350</v>
-      </c>
-      <c r="K34" s="51">
-        <v>3.7977554592309199</v>
-      </c>
-    </row>
-    <row r="35" spans="10:11">
-      <c r="J35" s="51">
-        <v>360</v>
-      </c>
-      <c r="K35" s="51">
-        <v>3.6732226018500498</v>
-      </c>
-    </row>
-    <row r="36" spans="10:11">
-      <c r="J36" s="51">
-        <v>370</v>
-      </c>
-      <c r="K36" s="51">
-        <v>2.7653597761073598</v>
-      </c>
-    </row>
-    <row r="37" spans="10:11">
-      <c r="J37" s="51">
-        <v>380</v>
-      </c>
-      <c r="K37" s="51">
-        <v>1.5321968701917701</v>
-      </c>
-    </row>
-    <row r="38" spans="10:11">
-      <c r="J38" s="51">
-        <v>390</v>
-      </c>
-      <c r="K38" s="51">
-        <v>0.48026571058731299</v>
-      </c>
-    </row>
-    <row r="39" spans="10:11">
-      <c r="J39" s="51">
-        <v>400</v>
-      </c>
-      <c r="K39" s="51">
-        <v>0.116077205096975</v>
-      </c>
-    </row>
-    <row r="40" spans="10:11">
-      <c r="J40" s="51">
-        <v>410</v>
-      </c>
-      <c r="K40" s="51">
-        <v>0.75249803122881997</v>
-      </c>
-    </row>
-    <row r="41" spans="10:11">
-      <c r="J41" s="51">
-        <v>420</v>
-      </c>
-      <c r="K41" s="51">
-        <v>2.03544455921064</v>
-      </c>
-    </row>
-    <row r="42" spans="10:11">
-      <c r="J42" s="51">
-        <v>430</v>
-      </c>
-      <c r="K42" s="51">
-        <v>3.4673519260852901</v>
-      </c>
-    </row>
-    <row r="43" spans="10:11">
-      <c r="J43" s="51">
-        <v>440</v>
-      </c>
-      <c r="K43" s="51">
-        <v>4.5506552688956301</v>
-      </c>
-    </row>
-    <row r="44" spans="10:11">
-      <c r="J44" s="51">
-        <v>450</v>
-      </c>
-      <c r="K44" s="51">
-        <v>4.7896236144614397</v>
-      </c>
-    </row>
-    <row r="45" spans="10:11">
-      <c r="J45" s="51">
-        <v>460</v>
-      </c>
-      <c r="K45" s="51">
-        <v>3.9939313286620601</v>
-      </c>
-    </row>
-    <row r="46" spans="10:11">
-      <c r="J46" s="51">
-        <v>470</v>
-      </c>
-      <c r="K46" s="51">
-        <v>2.6176535372930698</v>
-      </c>
-    </row>
-    <row r="47" spans="10:11">
-      <c r="J47" s="51">
-        <v>480</v>
-      </c>
-      <c r="K47" s="51">
-        <v>1.1965967768777701</v>
-      </c>
-    </row>
-    <row r="48" spans="10:11">
-      <c r="J48" s="51">
-        <v>490</v>
-      </c>
-      <c r="K48" s="51">
-        <v>0.26656758393945301</v>
-      </c>
-    </row>
-    <row r="49" spans="10:11">
-      <c r="J49" s="51">
-        <v>500</v>
-      </c>
-      <c r="K49" s="51">
-        <v>0.30450307184172998</v>
-      </c>
-    </row>
-    <row r="50" spans="10:11">
-      <c r="J50" s="51">
-        <v>510</v>
-      </c>
-      <c r="K50" s="51">
-        <v>1.1795950845356999</v>
-      </c>
-    </row>
-    <row r="51" spans="10:11">
-      <c r="J51" s="51">
-        <v>520</v>
-      </c>
-      <c r="K51" s="51">
-        <v>2.4024983669036302</v>
-      </c>
-    </row>
-    <row r="52" spans="10:11">
-      <c r="J52" s="51">
-        <v>530</v>
-      </c>
-      <c r="K52" s="51">
-        <v>3.4792336276023899</v>
-      </c>
-    </row>
-    <row r="53" spans="10:11">
-      <c r="J53" s="51">
-        <v>540</v>
-      </c>
-      <c r="K53" s="51">
-        <v>3.9196257150613198</v>
-      </c>
-    </row>
-    <row r="54" spans="10:11">
-      <c r="J54" s="51">
-        <v>550</v>
-      </c>
-      <c r="K54" s="51">
-        <v>3.5278271808445201</v>
-      </c>
-    </row>
-    <row r="55" spans="10:11">
-      <c r="J55" s="51">
-        <v>560</v>
-      </c>
-      <c r="K55" s="51">
-        <v>2.60689646296911</v>
-      </c>
-    </row>
-    <row r="56" spans="10:11">
-      <c r="J56" s="51">
-        <v>570</v>
-      </c>
-      <c r="K56" s="51">
-        <v>1.50821866396884</v>
-      </c>
-    </row>
-    <row r="57" spans="10:11">
-      <c r="J57" s="51">
-        <v>580</v>
-      </c>
-      <c r="K57" s="51">
-        <v>0.58317888637746795</v>
-      </c>
-    </row>
-    <row r="58" spans="10:11">
-      <c r="J58" s="51">
-        <v>590</v>
-      </c>
-      <c r="K58" s="51">
-        <v>0.178119742525332</v>
-      </c>
-    </row>
-    <row r="59" spans="10:11">
-      <c r="J59" s="51">
-        <v>600</v>
-      </c>
-      <c r="K59" s="51">
-        <v>0.38768818833507401</v>
-      </c>
-    </row>
-    <row r="60" spans="10:11">
-      <c r="J60" s="51">
-        <v>610</v>
-      </c>
-      <c r="K60" s="51">
-        <v>0.94313295227270499</v>
-      </c>
-    </row>
-    <row r="61" spans="10:11">
-      <c r="J61" s="51">
-        <v>620</v>
-      </c>
-      <c r="K61" s="51">
-        <v>1.54737074651738</v>
-      </c>
-    </row>
-    <row r="62" spans="10:11">
-      <c r="J62" s="51">
-        <v>630</v>
-      </c>
-      <c r="K62" s="51">
-        <v>1.90475724735677</v>
-      </c>
-    </row>
-    <row r="63" spans="10:11">
-      <c r="J63" s="51">
-        <v>640</v>
-      </c>
-      <c r="K63" s="51">
-        <v>1.86364330941918</v>
-      </c>
-    </row>
-    <row r="64" spans="10:11">
-      <c r="J64" s="51">
-        <v>650</v>
-      </c>
-      <c r="K64" s="51">
-        <v>1.53714750183782</v>
-      </c>
-    </row>
-    <row r="65" spans="10:11">
-      <c r="J65" s="51">
-        <v>660</v>
-      </c>
-      <c r="K65" s="51">
-        <v>1.0668282403443401</v>
-      </c>
-    </row>
-    <row r="66" spans="10:11">
-      <c r="J66" s="51">
-        <v>670</v>
-      </c>
-      <c r="K66" s="51">
-        <v>0.59424394067044495</v>
-      </c>
-    </row>
-    <row r="67" spans="10:11">
-      <c r="J67" s="51">
-        <v>680</v>
-      </c>
-      <c r="K67" s="51">
-        <v>0.26095301854779401</v>
-      </c>
-    </row>
-    <row r="68" spans="10:11">
-      <c r="J68" s="51">
-        <v>690</v>
-      </c>
-      <c r="K68" s="51">
-        <v>0.17564807300502999</v>
-      </c>
-    </row>
-    <row r="69" spans="10:11">
-      <c r="J69" s="51">
-        <v>700</v>
-      </c>
-      <c r="K69" s="51">
-        <v>0.269257758955459</v>
-      </c>
-    </row>
-    <row r="70" spans="10:11">
-      <c r="J70" s="51">
-        <v>710</v>
-      </c>
-      <c r="K70" s="51">
-        <v>0.412896917534885</v>
-      </c>
-    </row>
-    <row r="71" spans="10:11">
-      <c r="J71" s="51">
-        <v>720</v>
-      </c>
-      <c r="K71" s="51">
-        <v>0.50684400137112795</v>
-      </c>
-    </row>
-    <row r="72" spans="10:11">
-      <c r="J72" s="51">
-        <v>730</v>
-      </c>
-      <c r="K72" s="51">
-        <v>0.54341955886479298</v>
-      </c>
-    </row>
-    <row r="73" spans="10:11">
-      <c r="J73" s="51">
-        <v>740</v>
-      </c>
-      <c r="K73" s="51">
-        <v>0.53302882576335398</v>
-      </c>
-    </row>
-    <row r="74" spans="10:11">
-      <c r="J74" s="51">
-        <v>750</v>
-      </c>
-      <c r="K74" s="51">
-        <v>0.48607703781428502</v>
-      </c>
-    </row>
-    <row r="75" spans="10:11">
-      <c r="J75" s="51">
-        <v>760</v>
-      </c>
-      <c r="K75" s="51">
-        <v>0.41296943076505899</v>
-      </c>
-    </row>
-    <row r="76" spans="10:11">
-      <c r="J76" s="51">
-        <v>770</v>
-      </c>
-      <c r="K76" s="51">
-        <v>0.32411124036314998</v>
-      </c>
-    </row>
-    <row r="77" spans="10:11">
-      <c r="J77" s="51">
-        <v>780</v>
-      </c>
-      <c r="K77" s="51">
-        <v>0.229907702356032</v>
-      </c>
-    </row>
-    <row r="78" spans="10:11">
-      <c r="J78" s="51">
-        <v>790</v>
-      </c>
-      <c r="K78" s="51">
-        <v>0.14076405249117899</v>
-      </c>
-    </row>
-    <row r="79" spans="10:11">
-      <c r="J79" s="51">
-        <v>800</v>
-      </c>
-      <c r="K79" s="51">
-        <v>6.7085526516063906E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="10:11">
-      <c r="J80" s="51">
-        <v>810</v>
-      </c>
-      <c r="K80" s="51">
-        <v>1.92773601781609E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="10:11">
-      <c r="J81" s="51">
-        <v>820</v>
-      </c>
-      <c r="K81" s="51">
-        <v>5.2182570569509999E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="10:11">
-      <c r="J82" s="51">
-        <v>830</v>
-      </c>
-      <c r="K82" s="51">
-        <v>1.73326102595323E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="10:11">
-      <c r="J83" s="51">
-        <v>840</v>
-      </c>
-      <c r="K83" s="51">
-        <v>4.2203444590179502E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="10:11">
-      <c r="J84" s="51">
-        <v>850</v>
-      </c>
-      <c r="K84" s="51">
+      <c r="K84" s="24">
         <v>6.6402885177244395E-2</v>
       </c>
     </row>
@@ -4800,885 +4839,928 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="11" width="8.5703125"/>
-    <col min="12" max="12" width="10.85546875" style="17" customWidth="1"/>
-    <col min="13" max="13" width="10" style="17" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="17"/>
-    <col min="19" max="19" width="8" style="17" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="17" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="17"/>
+    <col min="12" max="12" width="10.85546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10" style="4" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="4"/>
+    <col min="19" max="19" width="8" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="4" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="4"/>
     <col min="23" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="Q1" s="28" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="Q1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="U1" s="20" t="s">
+      <c r="R1" s="48"/>
+      <c r="U1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="13.35" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="L2" s="32" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="L2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="O2" s="21" t="s">
+      <c r="M2" s="49"/>
+      <c r="O2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="29"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="17">
         <v>185</v>
       </c>
-      <c r="M3" s="48">
+      <c r="M3" s="22">
         <v>6.9858344763199502</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="17">
+      <c r="O3" s="4">
         <v>670</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="4">
         <v>900</v>
       </c>
-      <c r="R3" s="17">
+      <c r="R3" s="4">
         <f>Q3*3</f>
         <v>2700</v>
       </c>
-      <c r="S3" s="23">
+      <c r="S3" s="10">
         <f>(PI()*Q3*0.000001)/(O3*0.000000001)</f>
         <v>4220.0498331803183</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="11">
         <f>(PI()*R3*0.000001)/(O3*0.000000001)</f>
         <v>12660.149499540958</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="7">
         <f>ATAN(435.1*0.000001/P3)</f>
         <v>7.6333318507426184E-4</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="17">
+      <c r="A4" s="4">
         <f>'5-25-2012'!E$2</f>
         <v>185</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <f>'5-25-2012'!E$24</f>
         <v>5.8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>'5-25-2012'!E$25</f>
         <v>1.7651599003161762</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="5">
         <f>'5-25-2012'!E$26</f>
         <v>0.39470175282637221</v>
       </c>
-      <c r="L4" s="37">
+      <c r="L4" s="17">
         <v>235</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="22">
         <v>5.4962152004161497</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="4">
         <f>AVERAGE(541,551)</f>
         <v>546</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="4">
         <f>0.57</f>
         <v>0.56999999999999995</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="4">
         <v>900</v>
       </c>
-      <c r="R4" s="17">
+      <c r="R4" s="4">
         <f>Q4*3</f>
         <v>2700</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="10">
         <f>(PI()*Q4*0.000001)/(O4*0.000000001)</f>
         <v>5178.449428994164</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="11">
         <f>(PI()*R4*0.000001)/(O4*0.000000001)</f>
         <v>15535.348286982493</v>
       </c>
-      <c r="U4" s="20">
+      <c r="U4" s="7">
         <f>ATAN(447.1*0.000001/P4)</f>
         <v>7.8438580404488641E-4</v>
       </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="17">
+      <c r="A5" s="4">
         <f>'5-25-2012'!F$2</f>
         <v>235</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <f>'5-25-2012'!F$24</f>
         <v>8.4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <f>'5-25-2012'!F$25</f>
         <v>1.6982963599783716</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="5">
         <f>'5-25-2012'!F$26</f>
         <v>0.37975061068520921</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="17">
         <v>285</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="22">
         <v>34.975031278318703</v>
       </c>
+      <c r="S5" s="4">
+        <v>1400</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="17">
+      <c r="A6" s="4">
         <f>'5-25-2012'!G$2</f>
         <v>285</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <f>'5-25-2012'!G$24</f>
         <v>34.6</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <f>'5-25-2012'!G$25</f>
         <v>3.8443396531031198</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <f>'5-25-2012'!G$26</f>
         <v>0.85962047929365359</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="17">
         <v>335</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="22">
         <v>23.014092284426301</v>
       </c>
-      <c r="N6" s="17">
-        <v>670</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="O6" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="17">
+      <c r="A7" s="4">
         <f>'5-25-2012'!H$2</f>
         <v>335</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <f>'5-25-2012'!H$24</f>
         <v>22.9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <f>'5-25-2012'!H$25</f>
         <v>4.3152117713478333</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <f>'5-25-2012'!H$26</f>
         <v>0.96491068580410344</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="17">
         <v>385</v>
       </c>
-      <c r="M7" s="48">
+      <c r="M7" s="22">
         <v>51.989134581119899</v>
       </c>
+      <c r="O7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="17">
+      <c r="A8" s="4">
         <f>'5-25-2012'!I$2</f>
         <v>385</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <f>'5-25-2012'!I$24</f>
         <v>52.25</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <f>'5-25-2012'!I$25</f>
         <v>3.9185792269513624</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <f>'5-25-2012'!I$26</f>
         <v>0.87622095266818223</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="17">
         <v>435</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="22">
         <v>105.009881530218</v>
       </c>
-      <c r="O8" s="17" t="s">
-        <v>33</v>
+      <c r="O8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" s="4">
+        <v>435.1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5.96</v>
       </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="17">
+      <c r="A9" s="4">
         <f>'5-25-2012'!J$2</f>
         <v>435</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <f>'5-25-2012'!J$24</f>
         <v>104.9</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f>'5-25-2012'!J$25</f>
         <v>8.7473304198300177</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <f>'5-25-2012'!J$26</f>
         <v>1.9559625440391692</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="17">
         <v>485</v>
       </c>
-      <c r="M9" s="48">
+      <c r="M9" s="22">
         <v>10.989732327582299</v>
       </c>
-      <c r="N9" s="17">
-        <v>5.96</v>
-      </c>
-      <c r="O9" s="20">
-        <v>523</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="O9" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="4">
+        <f>549</f>
+        <v>549</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1.512</v>
+      </c>
+      <c r="S9" s="7"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="17">
+      <c r="A10" s="4">
         <f>'5-25-2012'!K$2</f>
         <v>485</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <f>'5-25-2012'!K$24</f>
         <v>10.9375</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <f>'5-25-2012'!K$25</f>
         <v>2.2647663602823727</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <f>'5-25-2012'!K$26</f>
         <v>0.56619159007059316</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="17">
         <v>535</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="22">
         <v>36.012366446538202</v>
       </c>
-      <c r="N10" s="17">
-        <v>1.512</v>
-      </c>
-      <c r="O10" s="20">
-        <v>549</v>
-      </c>
-      <c r="P10" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="O10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="7">
+        <v>523</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5.96</v>
+      </c>
+      <c r="S10" s="7"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="17">
+      <c r="A11" s="4">
         <f>'5-25-2012'!L$2</f>
         <v>535</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <f>'5-25-2012'!L$24</f>
         <v>35.75</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <f>'5-25-2012'!L$25</f>
         <v>4.7002239588298229</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="2">
         <f>'5-25-2012'!L$26</f>
         <v>1.0510020281416657</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="17">
         <v>585</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="22">
         <v>22.9809617593558</v>
       </c>
+      <c r="O11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="4">
+        <v>6.4279999999999999</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>3.15</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="17">
+      <c r="A12" s="4">
         <f>'5-25-2012'!M$2</f>
         <v>585</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <f>'5-25-2012'!M$24</f>
         <v>23.45</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <f>'5-25-2012'!M$25</f>
         <v>3.80408367830927</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="2">
         <f>'5-25-2012'!M$26</f>
         <v>0.85061896967969697</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="17">
         <v>635</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="22">
         <v>7.0348481156140501</v>
       </c>
-      <c r="O12" s="17" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="17">
+      <c r="A13" s="4">
         <f>'5-25-2012'!N$2</f>
         <v>635</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <f>'5-25-2012'!N$24</f>
         <v>7.55</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <f>'5-25-2012'!N$25</f>
         <v>1.8202082009311036</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="5">
         <f>'5-25-2012'!N$26</f>
         <v>0.40701092704845432</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="17">
         <v>685</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="22">
         <v>5.5119020000907</v>
       </c>
-      <c r="O13" s="17" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="14" spans="1:21">
-      <c r="A14" s="17">
+      <c r="A14" s="4">
         <f>'5-25-2012'!O$2</f>
         <v>685</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <f>'5-25-2012'!O$24</f>
         <v>3.35</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <f>'5-25-2012'!O$25</f>
         <v>1.3088765773505318</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="5">
         <f>'5-25-2012'!O$26</f>
         <v>0.29267370011130506</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="L15" s="17">
+        <v>424</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="L16" s="17">
+        <v>110.6</v>
+      </c>
+      <c r="M16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="O14" s="17" t="s">
+      <c r="N16" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="17"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="18"/>
-      <c r="L15" s="37">
-        <v>424</v>
-      </c>
-      <c r="M15" s="49" t="s">
+    <row r="17" spans="1:20">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="N17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="17"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="18"/>
-      <c r="L16" s="37">
-        <v>110.6</v>
-      </c>
-      <c r="M16" s="49" t="s">
+    <row r="18" spans="1:20">
+      <c r="A18" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="L18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="N17" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="L18" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-    </row>
-    <row r="19" spans="1:19" ht="13.35" customHeight="1">
-      <c r="A19" s="29" t="s">
+      <c r="M18" s="49"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+    </row>
+    <row r="19" spans="1:20" ht="13.35" customHeight="1">
+      <c r="A19" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="L19" s="35" t="s">
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="L19" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="29"/>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="53"/>
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="17">
         <v>185</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="17">
         <v>1.2845331139471801</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="17">
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="4">
         <f>'5-25-2012'!R$2</f>
         <v>185</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="5">
         <f>'5-25-2012'!R$24</f>
         <v>1.21</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="5">
         <f>'5-25-2012'!R$25</f>
         <v>0.15525869752737009</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="6">
         <f>'5-25-2012'!R$26</f>
         <v>3.4716900176927801E-2</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="17">
         <v>235</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="17">
         <v>1.6036199095033199</v>
       </c>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="40"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="17">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4">
         <f>'5-25-2012'!S$2</f>
         <v>235</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <f>'5-25-2012'!S$24</f>
         <v>2</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <f>'5-25-2012'!S$25</f>
         <v>1.1239029738980326</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="5">
         <f>'5-25-2012'!S$26</f>
         <v>0.25131234497501725</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="17">
         <v>285</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="17">
         <v>6.5816125051413499</v>
       </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="41"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="17">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="4">
         <f>'5-25-2012'!T$2</f>
         <v>285</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <f>'5-25-2012'!T$24</f>
         <v>5.85</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <f>'5-25-2012'!T$25</f>
         <v>2.0332758116683989</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="5">
         <f>'5-25-2012'!T$26</f>
         <v>0.45465429318966</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="17">
         <v>335</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="17">
         <v>13.990292060879799</v>
       </c>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="39"/>
-      <c r="S23" s="41"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="17">
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="4">
         <f>'5-25-2012'!U$2</f>
         <v>335</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <f>'5-25-2012'!U$24</f>
         <v>14.05</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <f>'5-25-2012'!U$25</f>
         <v>3.1367935354770351</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="2">
         <f>'5-25-2012'!U$26</f>
         <v>0.70140835767085485</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="17">
         <v>385</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="17">
         <v>21.326779103250001</v>
       </c>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="39"/>
-      <c r="S24" s="41"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="17">
+      <c r="N24" s="4">
+        <v>670</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="4">
         <f>'5-25-2012'!V$2</f>
         <v>385</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="3">
         <f>'5-25-2012'!V$24</f>
         <v>21.2</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="3">
         <f>'5-25-2012'!V$25</f>
         <v>3.458018903482476</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="2">
         <f>'5-25-2012'!V$26</f>
         <v>0.77323653356661004</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="17">
         <v>435</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="17">
         <v>26.314438502674498</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="39"/>
-      <c r="S25" s="41"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="17">
+      <c r="Q25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="4">
         <f>'5-25-2012'!W$2</f>
         <v>435</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="3">
         <f>'5-25-2012'!W$24</f>
         <v>25.55</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="3">
         <f>'5-25-2012'!W$25</f>
         <v>3.1867323637065561</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="2">
         <f>'5-25-2012'!W$26</f>
         <v>0.71257501913464427</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="17">
         <v>485</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="17">
         <v>27.344960921431699</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="41"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="17">
+      <c r="Q26" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="4">
         <f>'5-25-2012'!X$2</f>
         <v>485</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="3">
         <f>'5-25-2012'!X$24</f>
         <v>26.85</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="3">
         <f>'5-25-2012'!X$25</f>
         <v>5.1938729084829989</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="2">
         <f>'5-25-2012'!X$26</f>
         <v>1.2583057392117916</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="17">
         <v>535</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="17">
         <v>23.861620732208401</v>
       </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="41"/>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="17">
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="4">
         <f>'5-25-2012'!Y$2</f>
         <v>535</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="3">
         <f>'5-25-2012'!Y$24</f>
         <v>23.9</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="3">
         <f>'5-25-2012'!Y$25</f>
         <v>4.3757706088245296</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="2">
         <f>'5-25-2012'!Y$26</f>
         <v>0.9784520535277289</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="17">
         <v>585</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="17">
         <v>16.6837104072399</v>
       </c>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="41"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="17">
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="4">
         <f>'5-25-2012'!Z$2</f>
         <v>585</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <f>'5-25-2012'!Z$24</f>
         <v>16.5</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="3">
         <f>'5-25-2012'!Z$25</f>
         <v>2.3951705795753164</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="2">
         <f>'5-25-2012'!Z$26</f>
         <v>0.53557642336379763</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="17">
         <v>635</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="17">
         <v>8.2721513780351792</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="40"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="17">
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="4">
         <f>'5-25-2012'!AA$2</f>
         <v>635</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <f>'5-25-2012'!AA$24</f>
         <v>8.15</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="3">
         <f>'5-25-2012'!AA$25</f>
         <v>1.8994459025837254</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="5">
         <f>'5-25-2012'!AA$26</f>
         <v>0.42472901577606531</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="17">
         <v>685</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="17">
         <v>2.9362813656932398</v>
       </c>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="40"/>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="17">
+      <c r="T30" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="4">
         <f>'5-25-2012'!AB$2</f>
         <v>685</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="3">
         <f>'5-25-2012'!AB$24</f>
         <v>2.95</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="3">
         <f>'5-25-2012'!AB$25</f>
         <v>1.276302224561664</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="5">
         <f>'5-25-2012'!AB$26</f>
         <v>0.28538985339540823</v>
       </c>
-      <c r="L31" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" s="43"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="L32" s="44">
+      <c r="L31" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="51"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="L32" s="18">
         <v>472</v>
       </c>
-      <c r="M32" s="45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="12:13">
-      <c r="L33" s="46">
+      <c r="M32" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="12:20">
+      <c r="L33" s="20">
         <f>0.999196*27.5</f>
         <v>27.477889999999999</v>
       </c>
-      <c r="M33" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="12:13">
-      <c r="L34" s="17" t="s">
-        <v>46</v>
+      <c r="M33" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20">
+      <c r="L34" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20">
+      <c r="Q35" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+    </row>
+    <row r="36" spans="12:20">
+      <c r="Q36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="12:20">
+      <c r="Q37" s="4">
+        <v>561</v>
+      </c>
+      <c r="R37" s="4">
+        <v>580</v>
+      </c>
+      <c r="S37" s="4">
+        <f>R37-Q37</f>
+        <v>19</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="12:20">
+      <c r="P38" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="12:20">
+      <c r="P39" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="12:20">
+      <c r="P40" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L31:M31"/>
+  <mergeCells count="13">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Q35:S35"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="O6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -5688,171 +5770,721 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="17">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4">
         <f>'5-25-2012'!E$2</f>
         <v>185</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B1" s="3">
         <f>'5-25-2012'!E$24</f>
         <v>5.8</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="3">
         <f>'5-25-2012'!E$25</f>
         <v>1.7651599003161762</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="17">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
         <f>'5-25-2012'!F$2</f>
         <v>235</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <f>'5-25-2012'!F$24</f>
         <v>8.4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <f>'5-25-2012'!F$25</f>
         <v>1.6982963599783716</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="17">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
         <f>'5-25-2012'!G$2</f>
         <v>285</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <f>'5-25-2012'!G$24</f>
         <v>34.6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <f>'5-25-2012'!G$25</f>
         <v>3.8443396531031198</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="17">
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
         <f>'5-25-2012'!H$2</f>
         <v>335</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <f>'5-25-2012'!H$24</f>
         <v>22.9</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <f>'5-25-2012'!H$25</f>
         <v>4.3152117713478333</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="17">
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
         <f>'5-25-2012'!I$2</f>
         <v>385</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <f>'5-25-2012'!I$24</f>
         <v>52.25</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <f>'5-25-2012'!I$25</f>
         <v>3.9185792269513624</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="17">
+      <c r="E5">
+        <v>120</v>
+      </c>
+      <c r="F5">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
         <f>'5-25-2012'!J$2</f>
         <v>435</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <f>'5-25-2012'!J$24</f>
         <v>104.9</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <f>'5-25-2012'!J$25</f>
         <v>8.7473304198300177</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="17">
+      <c r="E6">
+        <v>140</v>
+      </c>
+      <c r="F6">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
         <f>'5-25-2012'!K$2</f>
         <v>485</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <f>'5-25-2012'!K$24</f>
         <v>10.9375</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <f>'5-25-2012'!K$25</f>
         <v>2.2647663602823727</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="17">
+      <c r="E7">
+        <v>150</v>
+      </c>
+      <c r="F7">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
         <f>'5-25-2012'!L$2</f>
         <v>535</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <f>'5-25-2012'!L$24</f>
         <v>35.75</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <f>'5-25-2012'!L$25</f>
         <v>4.7002239588298229</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="17">
+      <c r="E8">
+        <v>160</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
         <f>'5-25-2012'!M$2</f>
         <v>585</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <f>'5-25-2012'!M$24</f>
         <v>23.45</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f>'5-25-2012'!M$25</f>
         <v>3.80408367830927</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="17">
+      <c r="E9">
+        <v>170</v>
+      </c>
+      <c r="F9">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
         <f>'5-25-2012'!N$2</f>
         <v>635</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <f>'5-25-2012'!N$24</f>
         <v>7.55</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <f>'5-25-2012'!N$25</f>
         <v>1.8202082009311036</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="17">
+      <c r="E10">
+        <v>180</v>
+      </c>
+      <c r="F10">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
         <f>'5-25-2012'!O$2</f>
         <v>685</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <f>'5-25-2012'!O$24</f>
         <v>3.35</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <f>'5-25-2012'!O$25</f>
         <v>1.3088765773505318</v>
       </c>
+      <c r="E11">
+        <v>190</v>
+      </c>
+      <c r="F11">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="E13">
+        <v>210</v>
+      </c>
+      <c r="F13">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="E14">
+        <v>220</v>
+      </c>
+      <c r="F14">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="E15">
+        <v>230</v>
+      </c>
+      <c r="F15">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16">
+        <v>240</v>
+      </c>
+      <c r="F16">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17">
+        <v>250</v>
+      </c>
+      <c r="F17">
+        <v>1.1319999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18">
+        <v>260</v>
+      </c>
+      <c r="F18">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19">
+        <v>270</v>
+      </c>
+      <c r="F19">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20">
+        <v>280</v>
+      </c>
+      <c r="F20">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21">
+        <v>290</v>
+      </c>
+      <c r="F21">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23">
+        <v>310</v>
+      </c>
+      <c r="F23">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24">
+        <v>320</v>
+      </c>
+      <c r="F24">
+        <v>1.7330000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25">
+        <v>330</v>
+      </c>
+      <c r="F25">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26">
+        <v>340</v>
+      </c>
+      <c r="F26">
+        <v>2.3439999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27">
+        <v>350</v>
+      </c>
+      <c r="F27">
+        <v>1.9039999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28">
+        <v>360</v>
+      </c>
+      <c r="F28">
+        <v>1.155</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29">
+        <v>370</v>
+      </c>
+      <c r="F29">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30">
+        <v>380</v>
+      </c>
+      <c r="F30">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31">
+        <v>390</v>
+      </c>
+      <c r="F31">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32">
+        <v>400</v>
+      </c>
+      <c r="F32">
+        <v>1.0649999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33">
+        <v>410</v>
+      </c>
+      <c r="F33">
+        <v>2.077</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34">
+        <v>420</v>
+      </c>
+      <c r="F34">
+        <v>2.7240000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35">
+        <v>430</v>
+      </c>
+      <c r="F35">
+        <v>2.899</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36">
+        <v>440</v>
+      </c>
+      <c r="F36">
+        <v>2.4260000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37">
+        <v>450</v>
+      </c>
+      <c r="F37">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38">
+        <v>460</v>
+      </c>
+      <c r="F38">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39">
+        <v>470</v>
+      </c>
+      <c r="F39">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40">
+        <v>480</v>
+      </c>
+      <c r="F40">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41">
+        <v>490</v>
+      </c>
+      <c r="F41">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="E42">
+        <v>500</v>
+      </c>
+      <c r="F42">
+        <v>1.4650000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43">
+        <v>510</v>
+      </c>
+      <c r="F43">
+        <v>2.089</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44">
+        <v>520</v>
+      </c>
+      <c r="F44">
+        <v>2.2770000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6">
+      <c r="E45">
+        <v>530</v>
+      </c>
+      <c r="F45">
+        <v>1.992</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46">
+        <v>540</v>
+      </c>
+      <c r="F46">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="E47">
+        <v>550</v>
+      </c>
+      <c r="F47">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48">
+        <v>560</v>
+      </c>
+      <c r="F48">
+        <v>0.183</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49">
+        <v>570</v>
+      </c>
+      <c r="F49">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50">
+        <v>580</v>
+      </c>
+      <c r="F50">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51">
+        <v>590</v>
+      </c>
+      <c r="F51">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52">
+        <v>600</v>
+      </c>
+      <c r="F52">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53">
+        <v>610</v>
+      </c>
+      <c r="F53">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54">
+        <v>620</v>
+      </c>
+      <c r="F54">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6">
+      <c r="E55">
+        <v>630</v>
+      </c>
+      <c r="F55">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56">
+        <v>640</v>
+      </c>
+      <c r="F56">
+        <v>0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57">
+        <v>650</v>
+      </c>
+      <c r="F57">
+        <v>0.17399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58">
+        <v>660</v>
+      </c>
+      <c r="F58">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59">
+        <v>670</v>
+      </c>
+      <c r="F59">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60">
+        <v>680</v>
+      </c>
+      <c r="F60">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61">
+        <v>690</v>
+      </c>
+      <c r="F61">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62">
+        <v>700</v>
+      </c>
+      <c r="F62">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63">
+        <v>710</v>
+      </c>
+      <c r="F63">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6">
+      <c r="E64">
+        <v>720</v>
+      </c>
+      <c r="F64">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65">
+        <v>730</v>
+      </c>
+      <c r="F65">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66">
+        <v>740</v>
+      </c>
+      <c r="F66">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67">
+        <v>750</v>
+      </c>
+      <c r="F67">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68">
+        <v>760</v>
+      </c>
+      <c r="F68">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="E69">
+        <v>770</v>
+      </c>
+      <c r="F69">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70">
+        <v>780</v>
+      </c>
+      <c r="F70">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6">
+      <c r="E71">
+        <v>790</v>
+      </c>
+      <c r="F71">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="E72">
+        <v>800</v>
+      </c>
+      <c r="F72">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>